--- a/Support/PGN 5.6.xlsx
+++ b/Support/PGN 5.6.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="198">
   <si>
     <t>Src</t>
   </si>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t>NumSec</t>
+  </si>
+  <si>
+    <t>xte</t>
   </si>
 </sst>
 </file>
@@ -1234,6 +1237,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1256,24 +1277,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1584,7 +1587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1597,9 +1600,9 @@
   </sheetPr>
   <dimension ref="B1:AP74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1666,31 +1669,31 @@
       <c r="Q1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="101" t="s">
+      <c r="R1" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95"/>
     </row>
     <row r="2" spans="2:40" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="36"/>
@@ -1709,29 +1712,29 @@
       <c r="O2" s="44"/>
       <c r="P2" s="44"/>
       <c r="Q2" s="44"/>
-      <c r="R2" s="104"/>
+      <c r="R2" s="96"/>
       <c r="S2" s="91"/>
       <c r="T2" s="91"/>
       <c r="U2" s="91"/>
       <c r="V2" s="91"/>
       <c r="W2" s="91"/>
       <c r="X2" s="91"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="105"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
     </row>
     <row r="3" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
@@ -1756,19 +1759,19 @@
       <c r="H3" s="20">
         <v>8</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="I3" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="96"/>
+      <c r="J3" s="102"/>
       <c r="K3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="97" t="s">
+      <c r="L3" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="98"/>
+      <c r="M3" s="104"/>
       <c r="N3" s="1" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>18</v>
@@ -1779,8 +1782,8 @@
       <c r="Q3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
     </row>
     <row r="5" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
@@ -1820,10 +1823,10 @@
       <c r="M5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="99" t="s">
+      <c r="N5" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="99"/>
+      <c r="O5" s="105"/>
       <c r="P5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1912,18 +1915,18 @@
       <c r="H9" s="20">
         <v>8</v>
       </c>
-      <c r="I9" s="100" t="s">
+      <c r="I9" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="99" t="s">
+      <c r="J9" s="100"/>
+      <c r="K9" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99" t="s">
+      <c r="L9" s="105"/>
+      <c r="M9" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="99"/>
+      <c r="N9" s="105"/>
       <c r="O9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2509,18 +2512,18 @@
       <c r="H25" s="20">
         <v>8</v>
       </c>
-      <c r="I25" s="93" t="s">
+      <c r="I25" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94" t="s">
+      <c r="J25" s="100"/>
+      <c r="K25" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94" t="s">
+      <c r="L25" s="100"/>
+      <c r="M25" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="N25" s="94"/>
+      <c r="N25" s="100"/>
       <c r="O25" s="20">
         <v>0</v>
       </c>
@@ -4065,9 +4068,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4235,26 +4241,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F18C333-41DD-4AE5-A5E3-DF6F4E4DF526}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8B9148-C797-4C6B-A280-0738F64421E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ac7999f6-dd20-429f-9c50-d27a0c8de317"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4278,9 +4273,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8B9148-C797-4C6B-A280-0738F64421E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F18C333-41DD-4AE5-A5E3-DF6F4E4DF526}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ac7999f6-dd20-429f-9c50-d27a0c8de317"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Support/PGN 5.6.xlsx
+++ b/Support/PGN 5.6.xlsx
@@ -10,7 +10,7 @@
     <sheet name="PGN" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PGN!$A$1:$Q$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PGN!$A$1:$Q$86</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="223">
   <si>
     <t>Src</t>
   </si>
@@ -543,15 +543,9 @@
     <t>IP,  MAC</t>
   </si>
   <si>
-    <t>AgIO PGN</t>
-  </si>
-  <si>
     <t>Hello</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
     <t>Subnet Change</t>
   </si>
   <si>
@@ -622,6 +616,87 @@
   </si>
   <si>
     <t>xte</t>
+  </si>
+  <si>
+    <t>Module ID</t>
+  </si>
+  <si>
+    <t>Machine Reply</t>
+  </si>
+  <si>
+    <t>Steer Reply</t>
+  </si>
+  <si>
+    <t>IMU Reply</t>
+  </si>
+  <si>
+    <t>GPS Reply</t>
+  </si>
+  <si>
+    <t>Subnet Steer</t>
+  </si>
+  <si>
+    <t>Subnet Machine</t>
+  </si>
+  <si>
+    <t>Subnet IMU</t>
+  </si>
+  <si>
+    <t>Subnet GPS</t>
+  </si>
+  <si>
+    <t>ipOne</t>
+  </si>
+  <si>
+    <t>ipTwo</t>
+  </si>
+  <si>
+    <t>ipThree</t>
+  </si>
+  <si>
+    <t>SrcOne</t>
+  </si>
+  <si>
+    <t>SrcTwo</t>
+  </si>
+  <si>
+    <t>SrcThree</t>
+  </si>
+  <si>
+    <t>AngleLo</t>
+  </si>
+  <si>
+    <t>AngleHi</t>
+  </si>
+  <si>
+    <t>CountsLo</t>
+  </si>
+  <si>
+    <t>CountsHi</t>
+  </si>
+  <si>
+    <t>Switchbyte</t>
+  </si>
+  <si>
+    <t>Scan request</t>
+  </si>
+  <si>
+    <t>relayLo</t>
+  </si>
+  <si>
+    <t>relayHi</t>
+  </si>
+  <si>
+    <t>Hello Sent 2 Module</t>
+  </si>
+  <si>
+    <t>From AgIO</t>
+  </si>
+  <si>
+    <t>Subent Reply to AgIO</t>
+  </si>
+  <si>
+    <t>Hello Reply to AgIO</t>
   </si>
 </sst>
 </file>
@@ -973,7 +1048,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1261,6 +1336,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
@@ -1278,6 +1359,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1587,7 +1674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1598,11 +1685,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AP74"/>
+  <dimension ref="B1:AP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1759,19 +1846,19 @@
       <c r="H3" s="20">
         <v>8</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="102"/>
+      <c r="J3" s="104"/>
       <c r="K3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="103" t="s">
+      <c r="L3" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="104"/>
+      <c r="M3" s="106"/>
       <c r="N3" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>18</v>
@@ -1823,10 +1910,10 @@
       <c r="M5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="105" t="s">
+      <c r="N5" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="105"/>
+      <c r="O5" s="107"/>
       <c r="P5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1915,18 +2002,18 @@
       <c r="H9" s="20">
         <v>8</v>
       </c>
-      <c r="I9" s="106" t="s">
+      <c r="I9" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="105" t="s">
+      <c r="J9" s="102"/>
+      <c r="K9" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105" t="s">
+      <c r="L9" s="107"/>
+      <c r="M9" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="105"/>
+      <c r="N9" s="107"/>
       <c r="O9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2292,7 +2379,7 @@
     <row r="20" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D20" s="67" t="s">
         <v>12</v>
@@ -2301,7 +2388,7 @@
         <v>127</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G20" s="49">
         <v>235</v>
@@ -2313,100 +2400,100 @@
         <v>1</v>
       </c>
       <c r="J20" s="81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K20" s="81">
         <v>2</v>
       </c>
       <c r="L20" s="81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M20" s="81">
         <v>3</v>
       </c>
       <c r="N20" s="81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O20" s="81">
         <v>4</v>
       </c>
       <c r="P20" s="81" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q20" s="81">
         <v>5</v>
       </c>
       <c r="R20" s="92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S20" s="92">
         <v>6</v>
       </c>
       <c r="T20" s="92" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U20" s="92">
         <v>7</v>
       </c>
       <c r="V20" s="92" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="W20" s="92">
         <v>8</v>
       </c>
       <c r="X20" s="92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Y20" s="92">
         <v>9</v>
       </c>
       <c r="Z20" s="92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AA20" s="92">
         <v>10</v>
       </c>
       <c r="AB20" s="92" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AC20" s="92">
         <v>11</v>
       </c>
       <c r="AD20" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AE20" s="92">
         <v>12</v>
       </c>
       <c r="AF20" s="92" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG20" s="92">
         <v>13</v>
       </c>
       <c r="AH20" s="92" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI20" s="92">
         <v>14</v>
       </c>
       <c r="AJ20" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AK20" s="92">
         <v>15</v>
       </c>
       <c r="AL20" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AM20" s="92">
         <v>16</v>
       </c>
       <c r="AN20" s="92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AP20" s="3" t="s">
         <v>20</v>
@@ -2512,18 +2599,18 @@
       <c r="H25" s="20">
         <v>8</v>
       </c>
-      <c r="I25" s="99" t="s">
+      <c r="I25" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100" t="s">
+      <c r="J25" s="102"/>
+      <c r="K25" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100" t="s">
+      <c r="L25" s="102"/>
+      <c r="M25" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="N25" s="100"/>
+      <c r="N25" s="102"/>
       <c r="O25" s="20">
         <v>0</v>
       </c>
@@ -3691,10 +3778,10 @@
     </row>
     <row r="61" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="90" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="58" t="s">
         <v>171</v>
-      </c>
-      <c r="C61" s="58" t="s">
-        <v>172</v>
       </c>
       <c r="D61" s="67" t="s">
         <v>12</v>
@@ -3708,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="I61" s="71" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="J61" s="70">
         <v>0</v>
@@ -3748,305 +3835,956 @@
       <c r="AM61" s="91"/>
       <c r="AN61" s="91"/>
     </row>
-    <row r="62" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="11"/>
+    <row r="62" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="90"/>
       <c r="C62" s="58"/>
       <c r="D62" s="67"/>
       <c r="E62" s="53"/>
       <c r="F62" s="48"/>
       <c r="G62" s="54"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="70"/>
-      <c r="M62" s="70"/>
-      <c r="N62" s="70"/>
-      <c r="O62" s="70"/>
-      <c r="P62" s="70"/>
-      <c r="Q62" s="70"/>
-      <c r="R62" s="91"/>
-      <c r="S62" s="91"/>
-      <c r="T62" s="91"/>
-      <c r="U62" s="91"/>
-      <c r="V62" s="91"/>
-      <c r="W62" s="91"/>
-      <c r="X62" s="91"/>
-      <c r="Y62" s="91"/>
-      <c r="Z62" s="91"/>
-      <c r="AA62" s="91"/>
-      <c r="AB62" s="91"/>
-      <c r="AC62" s="91"/>
-      <c r="AD62" s="91"/>
-      <c r="AE62" s="91"/>
-      <c r="AF62" s="91"/>
-      <c r="AG62" s="91"/>
-      <c r="AH62" s="91"/>
-      <c r="AI62" s="91"/>
-      <c r="AJ62" s="91"/>
-      <c r="AK62" s="91"/>
-      <c r="AL62" s="91"/>
-      <c r="AM62" s="91"/>
-      <c r="AN62" s="91"/>
-    </row>
-    <row r="63" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="11"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="100"/>
+      <c r="Q62" s="100"/>
+      <c r="R62" s="100"/>
+      <c r="S62" s="100"/>
+      <c r="T62" s="100"/>
+      <c r="U62" s="100"/>
+      <c r="V62" s="100"/>
+      <c r="W62" s="100"/>
+      <c r="X62" s="100"/>
+      <c r="Y62" s="100"/>
+      <c r="Z62" s="100"/>
+      <c r="AA62" s="100"/>
+      <c r="AB62" s="100"/>
+      <c r="AC62" s="100"/>
+      <c r="AD62" s="100"/>
+      <c r="AE62" s="100"/>
+      <c r="AF62" s="100"/>
+      <c r="AG62" s="100"/>
+      <c r="AH62" s="100"/>
+      <c r="AI62" s="100"/>
+      <c r="AJ62" s="100"/>
+      <c r="AK62" s="100"/>
+      <c r="AL62" s="100"/>
+      <c r="AM62" s="100"/>
+      <c r="AN62" s="100"/>
+    </row>
+    <row r="63" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="90" t="s">
+        <v>222</v>
+      </c>
       <c r="C63" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="D63" s="67" t="s">
-        <v>12</v>
+        <v>198</v>
+      </c>
+      <c r="D63" s="67">
+        <v>126</v>
       </c>
       <c r="E63" s="53"/>
       <c r="F63" s="48"/>
       <c r="G63" s="54">
-        <v>201</v>
-      </c>
-      <c r="H63" s="70">
+        <v>126</v>
+      </c>
+      <c r="H63" s="100">
         <v>5</v>
       </c>
-      <c r="I63" s="71">
-        <v>201</v>
-      </c>
-      <c r="J63" s="70">
-        <v>201</v>
-      </c>
-      <c r="K63" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="L63" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="M63" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="N63" s="70" t="s">
+      <c r="I63" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="J63" s="100" t="s">
+        <v>212</v>
+      </c>
+      <c r="K63" s="100" t="s">
+        <v>213</v>
+      </c>
+      <c r="L63" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="M63" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="N63" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="70"/>
-      <c r="P63" s="70"/>
-      <c r="Q63" s="70"/>
-      <c r="R63" s="91"/>
-      <c r="S63" s="91"/>
-      <c r="T63" s="91"/>
-      <c r="U63" s="91"/>
-      <c r="V63" s="91"/>
-      <c r="W63" s="91"/>
-      <c r="X63" s="91"/>
-      <c r="Y63" s="91"/>
-      <c r="Z63" s="91"/>
-      <c r="AA63" s="91"/>
-      <c r="AB63" s="91"/>
-      <c r="AC63" s="91"/>
-      <c r="AD63" s="91"/>
-      <c r="AE63" s="91"/>
-      <c r="AF63" s="91"/>
-      <c r="AG63" s="91"/>
-      <c r="AH63" s="91"/>
-      <c r="AI63" s="91"/>
-      <c r="AJ63" s="91"/>
-      <c r="AK63" s="91"/>
-      <c r="AL63" s="91"/>
-      <c r="AM63" s="91"/>
-      <c r="AN63" s="91"/>
-    </row>
-    <row r="64" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="11"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="67"/>
+      <c r="O63" s="100"/>
+      <c r="P63" s="100"/>
+      <c r="Q63" s="100"/>
+      <c r="R63" s="100"/>
+      <c r="S63" s="100"/>
+      <c r="T63" s="100"/>
+      <c r="U63" s="100"/>
+      <c r="V63" s="100"/>
+      <c r="W63" s="100"/>
+      <c r="X63" s="100"/>
+      <c r="Y63" s="100"/>
+      <c r="Z63" s="100"/>
+      <c r="AA63" s="100"/>
+      <c r="AB63" s="100"/>
+      <c r="AC63" s="100"/>
+      <c r="AD63" s="100"/>
+      <c r="AE63" s="100"/>
+      <c r="AF63" s="100"/>
+      <c r="AG63" s="100"/>
+      <c r="AH63" s="100"/>
+      <c r="AI63" s="100"/>
+      <c r="AJ63" s="100"/>
+      <c r="AK63" s="100"/>
+      <c r="AL63" s="100"/>
+      <c r="AM63" s="100"/>
+      <c r="AN63" s="100"/>
+    </row>
+    <row r="64" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="90"/>
+      <c r="C64" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="67">
+        <v>123</v>
+      </c>
       <c r="E64" s="53"/>
       <c r="F64" s="48"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="70"/>
-      <c r="M64" s="70"/>
-      <c r="N64" s="70"/>
-      <c r="O64" s="70"/>
-      <c r="P64" s="70"/>
-      <c r="Q64" s="70"/>
-      <c r="R64" s="91"/>
-      <c r="S64" s="91"/>
-      <c r="T64" s="91"/>
-      <c r="U64" s="91"/>
-      <c r="V64" s="91"/>
-      <c r="W64" s="91"/>
-      <c r="X64" s="91"/>
-      <c r="Y64" s="91"/>
-      <c r="Z64" s="91"/>
-      <c r="AA64" s="91"/>
-      <c r="AB64" s="91"/>
-      <c r="AC64" s="91"/>
-      <c r="AD64" s="91"/>
-      <c r="AE64" s="91"/>
-      <c r="AF64" s="91"/>
-      <c r="AG64" s="91"/>
-      <c r="AH64" s="91"/>
-      <c r="AI64" s="91"/>
-      <c r="AJ64" s="91"/>
-      <c r="AK64" s="91"/>
-      <c r="AL64" s="91"/>
-      <c r="AM64" s="91"/>
-      <c r="AN64" s="91"/>
-    </row>
-    <row r="65" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="11"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="67"/>
+      <c r="G64" s="54">
+        <v>123</v>
+      </c>
+      <c r="H64" s="100">
+        <v>5</v>
+      </c>
+      <c r="I64" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="J64" s="100" t="s">
+        <v>218</v>
+      </c>
+      <c r="K64" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="L64" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="M64" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="N64" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="100"/>
+      <c r="P64" s="100"/>
+      <c r="Q64" s="100"/>
+      <c r="R64" s="100"/>
+      <c r="S64" s="100"/>
+      <c r="T64" s="100"/>
+      <c r="U64" s="100"/>
+      <c r="V64" s="100"/>
+      <c r="W64" s="100"/>
+      <c r="X64" s="100"/>
+      <c r="Y64" s="100"/>
+      <c r="Z64" s="100"/>
+      <c r="AA64" s="100"/>
+      <c r="AB64" s="100"/>
+      <c r="AC64" s="100"/>
+      <c r="AD64" s="100"/>
+      <c r="AE64" s="100"/>
+      <c r="AF64" s="100"/>
+      <c r="AG64" s="100"/>
+      <c r="AH64" s="100"/>
+      <c r="AI64" s="100"/>
+      <c r="AJ64" s="100"/>
+      <c r="AK64" s="100"/>
+      <c r="AL64" s="100"/>
+      <c r="AM64" s="100"/>
+      <c r="AN64" s="100"/>
+    </row>
+    <row r="65" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="90"/>
+      <c r="C65" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" s="67">
+        <v>121</v>
+      </c>
       <c r="E65" s="53"/>
       <c r="F65" s="48"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
-      <c r="L65" s="70"/>
-      <c r="M65" s="70"/>
-      <c r="N65" s="70"/>
-      <c r="O65" s="70"/>
-      <c r="P65" s="70"/>
-      <c r="Q65" s="70"/>
-      <c r="R65" s="91"/>
-      <c r="S65" s="91"/>
-      <c r="T65" s="91"/>
-      <c r="U65" s="91"/>
-      <c r="V65" s="91"/>
-      <c r="W65" s="91"/>
-      <c r="X65" s="91"/>
-      <c r="Y65" s="91"/>
-      <c r="Z65" s="91"/>
-      <c r="AA65" s="91"/>
-      <c r="AB65" s="91"/>
-      <c r="AC65" s="91"/>
-      <c r="AD65" s="91"/>
-      <c r="AE65" s="91"/>
-      <c r="AF65" s="91"/>
-      <c r="AG65" s="91"/>
-      <c r="AH65" s="91"/>
-      <c r="AI65" s="91"/>
-      <c r="AJ65" s="91"/>
-      <c r="AK65" s="91"/>
-      <c r="AL65" s="91"/>
-      <c r="AM65" s="91"/>
-      <c r="AN65" s="91"/>
-    </row>
-    <row r="66" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="78" t="s">
+      <c r="G65" s="54">
+        <v>121</v>
+      </c>
+      <c r="H65" s="100">
+        <v>5</v>
+      </c>
+      <c r="I65" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="J65" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="K65" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="L65" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="M65" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="N65" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="100"/>
+      <c r="P65" s="100"/>
+      <c r="Q65" s="100"/>
+      <c r="R65" s="100"/>
+      <c r="S65" s="100"/>
+      <c r="T65" s="100"/>
+      <c r="U65" s="100"/>
+      <c r="V65" s="100"/>
+      <c r="W65" s="100"/>
+      <c r="X65" s="100"/>
+      <c r="Y65" s="100"/>
+      <c r="Z65" s="100"/>
+      <c r="AA65" s="100"/>
+      <c r="AB65" s="100"/>
+      <c r="AC65" s="100"/>
+      <c r="AD65" s="100"/>
+      <c r="AE65" s="100"/>
+      <c r="AF65" s="100"/>
+      <c r="AG65" s="100"/>
+      <c r="AH65" s="100"/>
+      <c r="AI65" s="100"/>
+      <c r="AJ65" s="100"/>
+      <c r="AK65" s="100"/>
+      <c r="AL65" s="100"/>
+      <c r="AM65" s="100"/>
+      <c r="AN65" s="100"/>
+    </row>
+    <row r="66" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="90"/>
+      <c r="C66" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" s="67">
+        <v>120</v>
+      </c>
+      <c r="E66" s="53"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="54">
+        <v>120</v>
+      </c>
+      <c r="H66" s="100">
+        <v>5</v>
+      </c>
+      <c r="I66" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="J66" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="K66" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="L66" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="M66" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="N66" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="100"/>
+      <c r="P66" s="100"/>
+      <c r="Q66" s="100"/>
+      <c r="R66" s="100"/>
+      <c r="S66" s="100"/>
+      <c r="T66" s="100"/>
+      <c r="U66" s="100"/>
+      <c r="V66" s="100"/>
+      <c r="W66" s="100"/>
+      <c r="X66" s="100"/>
+      <c r="Y66" s="100"/>
+      <c r="Z66" s="100"/>
+      <c r="AA66" s="100"/>
+      <c r="AB66" s="100"/>
+      <c r="AC66" s="100"/>
+      <c r="AD66" s="100"/>
+      <c r="AE66" s="100"/>
+      <c r="AF66" s="100"/>
+      <c r="AG66" s="100"/>
+      <c r="AH66" s="100"/>
+      <c r="AI66" s="100"/>
+      <c r="AJ66" s="100"/>
+      <c r="AK66" s="100"/>
+      <c r="AL66" s="100"/>
+      <c r="AM66" s="100"/>
+      <c r="AN66" s="100"/>
+    </row>
+    <row r="67" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="11"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="71"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="70"/>
+      <c r="M67" s="70"/>
+      <c r="N67" s="70"/>
+      <c r="O67" s="70"/>
+      <c r="P67" s="70"/>
+      <c r="Q67" s="70"/>
+      <c r="R67" s="91"/>
+      <c r="S67" s="91"/>
+      <c r="T67" s="91"/>
+      <c r="U67" s="91"/>
+      <c r="V67" s="91"/>
+      <c r="W67" s="91"/>
+      <c r="X67" s="91"/>
+      <c r="Y67" s="91"/>
+      <c r="Z67" s="91"/>
+      <c r="AA67" s="91"/>
+      <c r="AB67" s="91"/>
+      <c r="AC67" s="91"/>
+      <c r="AD67" s="91"/>
+      <c r="AE67" s="91"/>
+      <c r="AF67" s="91"/>
+      <c r="AG67" s="91"/>
+      <c r="AH67" s="91"/>
+      <c r="AI67" s="91"/>
+      <c r="AJ67" s="91"/>
+      <c r="AK67" s="91"/>
+      <c r="AL67" s="91"/>
+      <c r="AM67" s="91"/>
+      <c r="AN67" s="91"/>
+    </row>
+    <row r="68" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="53"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="54">
+        <v>201</v>
+      </c>
+      <c r="H68" s="70">
+        <v>5</v>
+      </c>
+      <c r="I68" s="71">
+        <v>201</v>
+      </c>
+      <c r="J68" s="70">
+        <v>201</v>
+      </c>
+      <c r="K68" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="L68" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="M68" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="N68" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="70"/>
+      <c r="P68" s="70"/>
+      <c r="Q68" s="70"/>
+      <c r="R68" s="91"/>
+      <c r="S68" s="91"/>
+      <c r="T68" s="91"/>
+      <c r="U68" s="91"/>
+      <c r="V68" s="91"/>
+      <c r="W68" s="91"/>
+      <c r="X68" s="91"/>
+      <c r="Y68" s="91"/>
+      <c r="Z68" s="91"/>
+      <c r="AA68" s="91"/>
+      <c r="AB68" s="91"/>
+      <c r="AC68" s="91"/>
+      <c r="AD68" s="91"/>
+      <c r="AE68" s="91"/>
+      <c r="AF68" s="91"/>
+      <c r="AG68" s="91"/>
+      <c r="AH68" s="91"/>
+      <c r="AI68" s="91"/>
+      <c r="AJ68" s="91"/>
+      <c r="AK68" s="91"/>
+      <c r="AL68" s="91"/>
+      <c r="AM68" s="91"/>
+      <c r="AN68" s="91"/>
+    </row>
+    <row r="69" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="11"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="100"/>
+      <c r="I69" s="99"/>
+      <c r="J69" s="100"/>
+      <c r="K69" s="100"/>
+      <c r="L69" s="100"/>
+      <c r="M69" s="100"/>
+      <c r="N69" s="100"/>
+      <c r="O69" s="100"/>
+      <c r="P69" s="100"/>
+      <c r="Q69" s="100"/>
+      <c r="R69" s="100"/>
+      <c r="S69" s="100"/>
+      <c r="T69" s="100"/>
+      <c r="U69" s="100"/>
+      <c r="V69" s="100"/>
+      <c r="W69" s="100"/>
+      <c r="X69" s="100"/>
+      <c r="Y69" s="100"/>
+      <c r="Z69" s="100"/>
+      <c r="AA69" s="100"/>
+      <c r="AB69" s="100"/>
+      <c r="AC69" s="100"/>
+      <c r="AD69" s="100"/>
+      <c r="AE69" s="100"/>
+      <c r="AF69" s="100"/>
+      <c r="AG69" s="100"/>
+      <c r="AH69" s="100"/>
+      <c r="AI69" s="100"/>
+      <c r="AJ69" s="100"/>
+      <c r="AK69" s="100"/>
+      <c r="AL69" s="100"/>
+      <c r="AM69" s="100"/>
+      <c r="AN69" s="100"/>
+    </row>
+    <row r="70" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C70" s="110" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="53"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="54">
+        <v>202</v>
+      </c>
+      <c r="H70" s="70">
+        <v>3</v>
+      </c>
+      <c r="I70" s="71">
+        <v>202</v>
+      </c>
+      <c r="J70" s="70">
+        <v>202</v>
+      </c>
+      <c r="K70" s="70">
+        <v>5</v>
+      </c>
+      <c r="L70" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="70"/>
+      <c r="N70" s="70"/>
+      <c r="O70" s="70"/>
+      <c r="P70" s="70"/>
+      <c r="Q70" s="70"/>
+      <c r="R70" s="91"/>
+      <c r="S70" s="91"/>
+      <c r="T70" s="91"/>
+      <c r="U70" s="91"/>
+      <c r="V70" s="91"/>
+      <c r="W70" s="91"/>
+      <c r="X70" s="91"/>
+      <c r="Y70" s="91"/>
+      <c r="Z70" s="91"/>
+      <c r="AA70" s="91"/>
+      <c r="AB70" s="91"/>
+      <c r="AC70" s="91"/>
+      <c r="AD70" s="91"/>
+      <c r="AE70" s="91"/>
+      <c r="AF70" s="91"/>
+      <c r="AG70" s="91"/>
+      <c r="AH70" s="91"/>
+      <c r="AI70" s="91"/>
+      <c r="AJ70" s="91"/>
+      <c r="AK70" s="91"/>
+      <c r="AL70" s="91"/>
+      <c r="AM70" s="91"/>
+      <c r="AN70" s="91"/>
+    </row>
+    <row r="71" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="11"/>
+      <c r="C71" s="110"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="100"/>
+      <c r="I71" s="99"/>
+      <c r="J71" s="100"/>
+      <c r="K71" s="100"/>
+      <c r="L71" s="100"/>
+      <c r="M71" s="100"/>
+      <c r="N71" s="100"/>
+      <c r="O71" s="100"/>
+      <c r="P71" s="100"/>
+      <c r="Q71" s="100"/>
+      <c r="R71" s="100"/>
+      <c r="S71" s="100"/>
+      <c r="T71" s="100"/>
+      <c r="U71" s="100"/>
+      <c r="V71" s="100"/>
+      <c r="W71" s="100"/>
+      <c r="X71" s="100"/>
+      <c r="Y71" s="100"/>
+      <c r="Z71" s="100"/>
+      <c r="AA71" s="100"/>
+      <c r="AB71" s="100"/>
+      <c r="AC71" s="100"/>
+      <c r="AD71" s="100"/>
+      <c r="AE71" s="100"/>
+      <c r="AF71" s="100"/>
+      <c r="AG71" s="100"/>
+      <c r="AH71" s="100"/>
+      <c r="AI71" s="100"/>
+      <c r="AJ71" s="100"/>
+      <c r="AK71" s="100"/>
+      <c r="AL71" s="100"/>
+      <c r="AM71" s="100"/>
+      <c r="AN71" s="100"/>
+    </row>
+    <row r="72" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="109">
+        <v>126</v>
+      </c>
+      <c r="E72" s="53"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="54">
+        <v>203</v>
+      </c>
+      <c r="H72" s="70">
+        <v>7</v>
+      </c>
+      <c r="I72" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="J72" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="K72" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="L72" s="70">
+        <v>126</v>
+      </c>
+      <c r="M72" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="N72" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="O72" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="P72" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="70"/>
+      <c r="R72" s="91"/>
+      <c r="S72" s="91"/>
+      <c r="T72" s="91"/>
+      <c r="U72" s="91"/>
+      <c r="V72" s="91"/>
+      <c r="W72" s="91"/>
+      <c r="X72" s="91"/>
+      <c r="Y72" s="91"/>
+      <c r="Z72" s="91"/>
+      <c r="AA72" s="91"/>
+      <c r="AB72" s="91"/>
+      <c r="AC72" s="91"/>
+      <c r="AD72" s="91"/>
+      <c r="AE72" s="91"/>
+      <c r="AF72" s="91"/>
+      <c r="AG72" s="91"/>
+      <c r="AH72" s="91"/>
+      <c r="AI72" s="91"/>
+      <c r="AJ72" s="91"/>
+      <c r="AK72" s="91"/>
+      <c r="AL72" s="91"/>
+      <c r="AM72" s="91"/>
+      <c r="AN72" s="91"/>
+    </row>
+    <row r="73" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="11"/>
+      <c r="C73" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73" s="109">
+        <v>123</v>
+      </c>
+      <c r="E73" s="53"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="54">
+        <v>203</v>
+      </c>
+      <c r="H73" s="100">
+        <v>7</v>
+      </c>
+      <c r="I73" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="J73" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="K73" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="L73" s="100">
+        <v>123</v>
+      </c>
+      <c r="M73" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="N73" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="O73" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="P73" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="100"/>
+      <c r="R73" s="100"/>
+      <c r="S73" s="100"/>
+      <c r="T73" s="100"/>
+      <c r="U73" s="100"/>
+      <c r="V73" s="100"/>
+      <c r="W73" s="100"/>
+      <c r="X73" s="100"/>
+      <c r="Y73" s="100"/>
+      <c r="Z73" s="100"/>
+      <c r="AA73" s="100"/>
+      <c r="AB73" s="100"/>
+      <c r="AC73" s="100"/>
+      <c r="AD73" s="100"/>
+      <c r="AE73" s="100"/>
+      <c r="AF73" s="100"/>
+      <c r="AG73" s="100"/>
+      <c r="AH73" s="100"/>
+      <c r="AI73" s="100"/>
+      <c r="AJ73" s="100"/>
+      <c r="AK73" s="100"/>
+      <c r="AL73" s="100"/>
+      <c r="AM73" s="100"/>
+      <c r="AN73" s="100"/>
+    </row>
+    <row r="74" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="11"/>
+      <c r="C74" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="109">
+        <v>121</v>
+      </c>
+      <c r="E74" s="53"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="54">
+        <v>203</v>
+      </c>
+      <c r="H74" s="100">
+        <v>7</v>
+      </c>
+      <c r="I74" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="J74" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="K74" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="L74" s="100">
+        <v>121</v>
+      </c>
+      <c r="M74" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="N74" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="O74" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="P74" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="100"/>
+      <c r="R74" s="100"/>
+      <c r="S74" s="100"/>
+      <c r="T74" s="100"/>
+      <c r="U74" s="100"/>
+      <c r="V74" s="100"/>
+      <c r="W74" s="100"/>
+      <c r="X74" s="100"/>
+      <c r="Y74" s="100"/>
+      <c r="Z74" s="100"/>
+      <c r="AA74" s="100"/>
+      <c r="AB74" s="100"/>
+      <c r="AC74" s="100"/>
+      <c r="AD74" s="100"/>
+      <c r="AE74" s="100"/>
+      <c r="AF74" s="100"/>
+      <c r="AG74" s="100"/>
+      <c r="AH74" s="100"/>
+      <c r="AI74" s="100"/>
+      <c r="AJ74" s="100"/>
+      <c r="AK74" s="100"/>
+      <c r="AL74" s="100"/>
+      <c r="AM74" s="100"/>
+      <c r="AN74" s="100"/>
+    </row>
+    <row r="75" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="11"/>
+      <c r="C75" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="109">
+        <v>120</v>
+      </c>
+      <c r="E75" s="53"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="54">
+        <v>203</v>
+      </c>
+      <c r="H75" s="100">
+        <v>7</v>
+      </c>
+      <c r="I75" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="J75" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="K75" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="L75" s="100">
+        <v>120</v>
+      </c>
+      <c r="M75" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="N75" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="O75" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="P75" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="100"/>
+      <c r="R75" s="100"/>
+      <c r="S75" s="100"/>
+      <c r="T75" s="100"/>
+      <c r="U75" s="100"/>
+      <c r="V75" s="100"/>
+      <c r="W75" s="100"/>
+      <c r="X75" s="100"/>
+      <c r="Y75" s="100"/>
+      <c r="Z75" s="100"/>
+      <c r="AA75" s="100"/>
+      <c r="AB75" s="100"/>
+      <c r="AC75" s="100"/>
+      <c r="AD75" s="100"/>
+      <c r="AE75" s="100"/>
+      <c r="AF75" s="100"/>
+      <c r="AG75" s="100"/>
+      <c r="AH75" s="100"/>
+      <c r="AI75" s="100"/>
+      <c r="AJ75" s="100"/>
+      <c r="AK75" s="100"/>
+      <c r="AL75" s="100"/>
+      <c r="AM75" s="100"/>
+      <c r="AN75" s="100"/>
+    </row>
+    <row r="76" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="11"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="109"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="100"/>
+      <c r="I76" s="99"/>
+      <c r="J76" s="100"/>
+      <c r="K76" s="100"/>
+      <c r="L76" s="100"/>
+      <c r="M76" s="100"/>
+      <c r="N76" s="100"/>
+      <c r="O76" s="100"/>
+      <c r="P76" s="100"/>
+      <c r="Q76" s="100"/>
+      <c r="R76" s="100"/>
+      <c r="S76" s="100"/>
+      <c r="T76" s="100"/>
+      <c r="U76" s="100"/>
+      <c r="V76" s="100"/>
+      <c r="W76" s="100"/>
+      <c r="X76" s="100"/>
+      <c r="Y76" s="100"/>
+      <c r="Z76" s="100"/>
+      <c r="AA76" s="100"/>
+      <c r="AB76" s="100"/>
+      <c r="AC76" s="100"/>
+      <c r="AD76" s="100"/>
+      <c r="AE76" s="100"/>
+      <c r="AF76" s="100"/>
+      <c r="AG76" s="100"/>
+      <c r="AH76" s="100"/>
+      <c r="AI76" s="100"/>
+      <c r="AJ76" s="100"/>
+      <c r="AK76" s="100"/>
+      <c r="AL76" s="100"/>
+      <c r="AM76" s="100"/>
+      <c r="AN76" s="100"/>
+    </row>
+    <row r="77" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="D67" s="74" t="s">
+      <c r="D78" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="E67" s="75"/>
-      <c r="F67" s="76" t="s">
+      <c r="E78" s="75"/>
+      <c r="F78" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="G67" s="77"/>
-    </row>
-    <row r="68" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B68" s="73" t="s">
+      <c r="G78" s="77"/>
+    </row>
+    <row r="79" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B79" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="72" t="s">
+      <c r="C79" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="67">
+      <c r="D79" s="67">
         <v>254</v>
       </c>
-      <c r="E68" s="47" t="s">
+      <c r="E79" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="48">
+      <c r="F79" s="48">
         <v>253</v>
       </c>
-      <c r="G68" s="49" t="s">
+      <c r="G79" s="49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B69" s="73"/>
-      <c r="C69" s="72"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-    </row>
-    <row r="70" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B70" s="73" t="s">
+    <row r="80" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B80" s="73"/>
+      <c r="C80" s="72"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B81" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="72" t="s">
+      <c r="C81" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="D70" s="67">
+      <c r="D81" s="67">
         <v>239</v>
       </c>
-      <c r="E70" s="47" t="s">
+      <c r="E81" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="48">
+      <c r="F81" s="48">
         <v>237</v>
       </c>
-      <c r="G70" s="49" t="s">
+      <c r="G81" s="49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B71" s="73"/>
-      <c r="C71" s="72"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-    </row>
-    <row r="72" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B72" s="73" t="s">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B82" s="73"/>
+      <c r="C82" s="72"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B83" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="72" t="s">
+      <c r="C83" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="F72" s="48">
+      <c r="F83" s="48">
         <v>211</v>
       </c>
-      <c r="G72" s="49" t="s">
+      <c r="G83" s="49" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B73" s="73"/>
-      <c r="C73" s="72"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-    </row>
-    <row r="74" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B74" s="73" t="s">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B84" s="73"/>
+      <c r="C84" s="72"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B85" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="72" t="s">
+      <c r="C85" s="72" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4068,12 +4806,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4241,15 +4976,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8B9148-C797-4C6B-A280-0738F64421E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F18C333-41DD-4AE5-A5E3-DF6F4E4DF526}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ac7999f6-dd20-429f-9c50-d27a0c8de317"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4273,17 +5019,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F18C333-41DD-4AE5-A5E3-DF6F4E4DF526}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8B9148-C797-4C6B-A280-0738F64421E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ac7999f6-dd20-429f-9c50-d27a0c8de317"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Support/PGN 5.6.xlsx
+++ b/Support/PGN 5.6.xlsx
@@ -687,16 +687,16 @@
     <t>relayHi</t>
   </si>
   <si>
-    <t>Hello Sent 2 Module</t>
-  </si>
-  <si>
     <t>From AgIO</t>
   </si>
   <si>
-    <t>Subent Reply to AgIO</t>
-  </si>
-  <si>
     <t>Hello Reply to AgIO</t>
+  </si>
+  <si>
+    <t>Hello Sent To Module</t>
+  </si>
+  <si>
+    <t>Subnet Reply to AgIO</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O65" sqref="O65"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3776,9 +3776,9 @@
       <c r="AM60" s="91"/>
       <c r="AN60" s="91"/>
     </row>
-    <row r="61" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="90" t="s">
-        <v>219</v>
+    <row r="61" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="11" t="s">
+        <v>221</v>
       </c>
       <c r="C61" s="58" t="s">
         <v>171</v>
@@ -3876,9 +3876,9 @@
       <c r="AM62" s="100"/>
       <c r="AN62" s="100"/>
     </row>
-    <row r="63" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="90" t="s">
-        <v>222</v>
+    <row r="63" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="11" t="s">
+        <v>220</v>
       </c>
       <c r="C63" s="58" t="s">
         <v>198</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="68" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C68" s="58" t="s">
         <v>172</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="70" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C70" s="110" t="s">
         <v>216</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="72" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C72" s="58" t="s">
         <v>201</v>

--- a/Support/PGN 5.6.xlsx
+++ b/Support/PGN 5.6.xlsx
@@ -10,7 +10,7 @@
     <sheet name="PGN" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PGN!$A$1:$Q$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PGN!$A$1:$Q$91</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="240">
   <si>
     <t>Src</t>
   </si>
@@ -697,6 +697,57 @@
   </si>
   <si>
     <t>Subnet Reply to AgIO</t>
+  </si>
+  <si>
+    <t>From imu/WAS</t>
+  </si>
+  <si>
+    <t>ToAutosteer</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>WAS_Lo</t>
+  </si>
+  <si>
+    <t>WAS_Hi</t>
+  </si>
+  <si>
+    <t>64 sections</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>1to8</t>
+  </si>
+  <si>
+    <t>9to16</t>
+  </si>
+  <si>
+    <t>17to24</t>
+  </si>
+  <si>
+    <t>25to32</t>
+  </si>
+  <si>
+    <t>33to40</t>
+  </si>
+  <si>
+    <t>41to48</t>
+  </si>
+  <si>
+    <t>49to56</t>
+  </si>
+  <si>
+    <t>57to64</t>
+  </si>
+  <si>
+    <t>Lspeed</t>
+  </si>
+  <si>
+    <t>Rspeed</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1099,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1342,6 +1393,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
@@ -1359,12 +1434,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1685,11 +1754,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AP85"/>
+  <dimension ref="B1:AP90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1705,7 +1774,9 @@
     <col min="9" max="9" width="14.42578125" style="2" customWidth="1"/>
     <col min="10" max="16" width="14.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" style="1" customWidth="1"/>
-    <col min="18" max="40" width="5.7109375" style="92" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="92" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" style="92" customWidth="1"/>
+    <col min="20" max="40" width="5.7109375" style="92" customWidth="1"/>
     <col min="41" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -1846,17 +1917,17 @@
       <c r="H3" s="20">
         <v>8</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="104"/>
+      <c r="J3" s="112"/>
       <c r="K3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="105" t="s">
+      <c r="L3" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="106"/>
+      <c r="M3" s="114"/>
       <c r="N3" s="1" t="s">
         <v>195</v>
       </c>
@@ -1910,10 +1981,10 @@
       <c r="M5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="107" t="s">
+      <c r="N5" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="107"/>
+      <c r="O5" s="115"/>
       <c r="P5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2002,18 +2073,18 @@
       <c r="H9" s="20">
         <v>8</v>
       </c>
-      <c r="I9" s="108" t="s">
+      <c r="I9" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="102"/>
-      <c r="K9" s="107" t="s">
+      <c r="J9" s="110"/>
+      <c r="K9" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107" t="s">
+      <c r="L9" s="115"/>
+      <c r="M9" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="107"/>
+      <c r="N9" s="115"/>
       <c r="O9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2071,149 +2142,187 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:40" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="23"/>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="23"/>
-      <c r="AN12" s="23"/>
-    </row>
-    <row r="13" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+    <row r="12" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="102"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="103"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="103"/>
+      <c r="Z12" s="103"/>
+      <c r="AA12" s="103"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="103"/>
+      <c r="AD12" s="103"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="103"/>
+      <c r="AG12" s="103"/>
+      <c r="AH12" s="103"/>
+      <c r="AI12" s="103"/>
+      <c r="AJ12" s="103"/>
+      <c r="AK12" s="103"/>
+      <c r="AL12" s="103"/>
+      <c r="AM12" s="103"/>
+      <c r="AN12" s="103"/>
+    </row>
+    <row r="13" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="67">
+        <v>79</v>
+      </c>
+      <c r="E13" s="47">
+        <v>121</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="49">
+        <v>249</v>
+      </c>
+      <c r="H13" s="102">
+        <v>8</v>
+      </c>
+      <c r="I13" s="101" t="s">
+        <v>226</v>
+      </c>
+      <c r="J13" s="103" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="103"/>
+      <c r="Z13" s="103"/>
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
+      <c r="AD13" s="103"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="103"/>
+      <c r="AG13" s="103"/>
+      <c r="AH13" s="103"/>
+      <c r="AI13" s="103"/>
+      <c r="AJ13" s="103"/>
+      <c r="AK13" s="103"/>
+      <c r="AL13" s="103"/>
+      <c r="AM13" s="103"/>
+      <c r="AN13" s="103"/>
+    </row>
+    <row r="14" spans="2:40" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="23"/>
+      <c r="AL14" s="23"/>
+      <c r="AM14" s="23"/>
+      <c r="AN14" s="23"/>
+    </row>
+    <row r="15" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="91"/>
-      <c r="V13" s="91"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="91"/>
-      <c r="AA13" s="91"/>
-      <c r="AB13" s="91"/>
-      <c r="AC13" s="91"/>
-      <c r="AD13" s="91"/>
-      <c r="AE13" s="91"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="91"/>
-      <c r="AH13" s="91"/>
-      <c r="AI13" s="91"/>
-      <c r="AJ13" s="91"/>
-      <c r="AK13" s="91"/>
-      <c r="AL13" s="91"/>
-      <c r="AM13" s="91"/>
-      <c r="AN13" s="91"/>
-    </row>
-    <row r="14" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="58" t="s">
+      <c r="C15" s="58"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="91"/>
+      <c r="AD15" s="91"/>
+      <c r="AE15" s="91"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="91"/>
+      <c r="AH15" s="91"/>
+      <c r="AI15" s="91"/>
+      <c r="AJ15" s="91"/>
+      <c r="AK15" s="91"/>
+      <c r="AL15" s="91"/>
+      <c r="AM15" s="91"/>
+      <c r="AN15" s="91"/>
+    </row>
+    <row r="16" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="58" t="s">
         <v>126</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="47">
-        <v>127</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="49">
-        <f>HEX2DEC(F14)</f>
-        <v>239</v>
-      </c>
-      <c r="H14" s="20">
-        <v>8</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B15" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>127</v>
       </c>
       <c r="D16" s="67" t="s">
         <v>12</v>
@@ -2222,54 +2331,54 @@
         <v>127</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G16" s="49">
         <f>HEX2DEC(F16)</f>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H16" s="20">
         <v>8</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="11" t="s">
-        <v>148</v>
+      <c r="B18" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D18" s="67" t="s">
         <v>12</v>
@@ -2278,108 +2387,54 @@
         <v>127</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G18" s="49">
-        <f t="shared" ref="G18" si="0">HEX2DEC(F18)</f>
-        <v>236</v>
+        <f>HEX2DEC(F18)</f>
+        <v>238</v>
       </c>
       <c r="H18" s="20">
-        <v>24</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2</v>
-      </c>
-      <c r="K18" s="1">
-        <v>3</v>
-      </c>
-      <c r="L18" s="1">
-        <v>4</v>
-      </c>
-      <c r="M18" s="1">
-        <v>5</v>
-      </c>
-      <c r="N18" s="1">
-        <v>6</v>
-      </c>
-      <c r="O18" s="1">
-        <v>7</v>
-      </c>
-      <c r="P18" s="1">
         <v>8</v>
       </c>
-      <c r="Q18" s="1">
-        <v>9</v>
-      </c>
-      <c r="R18" s="92">
-        <v>10</v>
-      </c>
-      <c r="S18" s="92">
-        <v>11</v>
-      </c>
-      <c r="T18" s="92">
-        <v>12</v>
-      </c>
-      <c r="U18" s="92">
-        <v>13</v>
-      </c>
-      <c r="V18" s="92">
-        <v>14</v>
-      </c>
-      <c r="W18" s="92">
-        <v>15</v>
-      </c>
-      <c r="X18" s="92">
-        <v>16</v>
-      </c>
-      <c r="Y18" s="92">
-        <v>17</v>
-      </c>
-      <c r="Z18" s="92">
-        <v>18</v>
-      </c>
-      <c r="AA18" s="92">
-        <v>19</v>
-      </c>
-      <c r="AB18" s="92">
+      <c r="I18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AC18" s="92">
-        <v>21</v>
-      </c>
-      <c r="AD18" s="92">
-        <v>22</v>
-      </c>
-      <c r="AE18" s="92">
-        <v>23</v>
-      </c>
-      <c r="AF18" s="92">
-        <v>24</v>
-      </c>
-      <c r="AG18" s="92" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="19" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="11"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
+      <c r="B19" s="8" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="20" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="C20" s="58" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D20" s="67" t="s">
         <v>12</v>
@@ -2388,452 +2443,493 @@
         <v>127</v>
       </c>
       <c r="F20" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="49">
+        <f t="shared" ref="G20" si="0">HEX2DEC(F20)</f>
+        <v>236</v>
+      </c>
+      <c r="H20" s="20">
+        <v>24</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>6</v>
+      </c>
+      <c r="O20" s="1">
+        <v>7</v>
+      </c>
+      <c r="P20" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>9</v>
+      </c>
+      <c r="R20" s="92">
+        <v>10</v>
+      </c>
+      <c r="S20" s="92">
+        <v>11</v>
+      </c>
+      <c r="T20" s="92">
+        <v>12</v>
+      </c>
+      <c r="U20" s="92">
+        <v>13</v>
+      </c>
+      <c r="V20" s="92">
+        <v>14</v>
+      </c>
+      <c r="W20" s="92">
+        <v>15</v>
+      </c>
+      <c r="X20" s="92">
+        <v>16</v>
+      </c>
+      <c r="Y20" s="92">
+        <v>17</v>
+      </c>
+      <c r="Z20" s="92">
+        <v>18</v>
+      </c>
+      <c r="AA20" s="92">
+        <v>19</v>
+      </c>
+      <c r="AB20" s="92">
+        <v>20</v>
+      </c>
+      <c r="AC20" s="92">
+        <v>21</v>
+      </c>
+      <c r="AD20" s="92">
+        <v>22</v>
+      </c>
+      <c r="AE20" s="92">
+        <v>23</v>
+      </c>
+      <c r="AF20" s="92">
+        <v>24</v>
+      </c>
+      <c r="AG20" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+    </row>
+    <row r="22" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
+      <c r="C22" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="47">
+        <v>127</v>
+      </c>
+      <c r="F22" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G22" s="49">
         <v>235</v>
       </c>
-      <c r="H20" s="80">
+      <c r="H22" s="80">
         <v>33</v>
       </c>
-      <c r="I20" s="79">
+      <c r="I22" s="79">
         <v>1</v>
       </c>
-      <c r="J20" s="81" t="s">
+      <c r="J22" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="K20" s="81">
+      <c r="K22" s="81">
         <v>2</v>
       </c>
-      <c r="L20" s="81" t="s">
+      <c r="L22" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="M20" s="81">
+      <c r="M22" s="81">
         <v>3</v>
       </c>
-      <c r="N20" s="81" t="s">
+      <c r="N22" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="O20" s="81">
+      <c r="O22" s="81">
         <v>4</v>
       </c>
-      <c r="P20" s="81" t="s">
+      <c r="P22" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="Q20" s="81">
+      <c r="Q22" s="81">
         <v>5</v>
       </c>
-      <c r="R20" s="92" t="s">
+      <c r="R22" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="S20" s="92">
+      <c r="S22" s="92">
         <v>6</v>
       </c>
-      <c r="T20" s="92" t="s">
+      <c r="T22" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="U20" s="92">
+      <c r="U22" s="92">
         <v>7</v>
       </c>
-      <c r="V20" s="92" t="s">
+      <c r="V22" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="W20" s="92">
+      <c r="W22" s="92">
         <v>8</v>
       </c>
-      <c r="X20" s="92" t="s">
+      <c r="X22" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="Y20" s="92">
+      <c r="Y22" s="92">
         <v>9</v>
       </c>
-      <c r="Z20" s="92" t="s">
+      <c r="Z22" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="AA20" s="92">
+      <c r="AA22" s="92">
         <v>10</v>
       </c>
-      <c r="AB20" s="92" t="s">
+      <c r="AB22" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="AC20" s="92">
+      <c r="AC22" s="92">
         <v>11</v>
       </c>
-      <c r="AD20" s="92" t="s">
+      <c r="AD22" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="AE20" s="92">
+      <c r="AE22" s="92">
         <v>12</v>
       </c>
-      <c r="AF20" s="92" t="s">
+      <c r="AF22" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="AG20" s="92">
+      <c r="AG22" s="92">
         <v>13</v>
       </c>
-      <c r="AH20" s="92" t="s">
+      <c r="AH22" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="AI20" s="92">
+      <c r="AI22" s="92">
         <v>14</v>
       </c>
-      <c r="AJ20" s="92" t="s">
+      <c r="AJ22" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="AK20" s="92">
+      <c r="AK22" s="92">
         <v>15</v>
       </c>
-      <c r="AL20" s="92" t="s">
+      <c r="AL22" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="AM20" s="92">
+      <c r="AM22" s="92">
         <v>16</v>
       </c>
-      <c r="AN20" s="92" t="s">
+      <c r="AN22" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="AO20" s="3" t="s">
+      <c r="AO22" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AP20" s="3" t="s">
+      <c r="AP22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="58" t="s">
+    <row r="23" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D24" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E24" s="47">
         <v>123</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F24" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G24" s="49">
         <v>237</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H24" s="20">
         <v>8</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I24" s="2">
         <v>1</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J24" s="1">
         <v>2</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K24" s="1">
         <v>3</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L24" s="1">
         <v>4</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:42" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+    <row r="25" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="107"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="108"/>
+      <c r="W25" s="108"/>
+      <c r="X25" s="108"/>
+      <c r="Y25" s="108"/>
+      <c r="Z25" s="108"/>
+      <c r="AA25" s="108"/>
+      <c r="AB25" s="108"/>
+      <c r="AC25" s="108"/>
+      <c r="AD25" s="108"/>
+      <c r="AE25" s="108"/>
+      <c r="AF25" s="108"/>
+      <c r="AG25" s="108"/>
+      <c r="AH25" s="108"/>
+      <c r="AI25" s="108"/>
+      <c r="AJ25" s="108"/>
+      <c r="AK25" s="108"/>
+      <c r="AL25" s="108"/>
+      <c r="AM25" s="108"/>
+      <c r="AN25" s="108"/>
+    </row>
+    <row r="26" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="47">
+        <v>127</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" s="49">
+        <v>229</v>
+      </c>
+      <c r="H26" s="107">
+        <v>10</v>
+      </c>
+      <c r="I26" s="106" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" s="108" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" s="108" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" s="108" t="s">
+        <v>234</v>
+      </c>
+      <c r="N26" s="108" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" s="108" t="s">
+        <v>236</v>
+      </c>
+      <c r="P26" s="108" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q26" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="R26" s="108" t="s">
+        <v>239</v>
+      </c>
+      <c r="S26" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="108"/>
+      <c r="Y26" s="108"/>
+      <c r="Z26" s="108"/>
+      <c r="AA26" s="108"/>
+      <c r="AB26" s="108"/>
+      <c r="AC26" s="108"/>
+      <c r="AD26" s="108"/>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="108"/>
+      <c r="AG26" s="108"/>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="108"/>
+      <c r="AJ26" s="108"/>
+      <c r="AK26" s="108"/>
+      <c r="AL26" s="108"/>
+      <c r="AM26" s="108"/>
+      <c r="AN26" s="108"/>
+    </row>
+    <row r="27" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="107"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="108"/>
+      <c r="Y27" s="108"/>
+      <c r="Z27" s="108"/>
+      <c r="AA27" s="108"/>
+      <c r="AB27" s="108"/>
+      <c r="AC27" s="108"/>
+      <c r="AD27" s="108"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="108"/>
+      <c r="AG27" s="108"/>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="108"/>
+      <c r="AJ27" s="108"/>
+      <c r="AK27" s="108"/>
+      <c r="AL27" s="108"/>
+      <c r="AM27" s="108"/>
+      <c r="AN27" s="108"/>
+    </row>
+    <row r="29" spans="2:42" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-    </row>
-    <row r="25" spans="2:42" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="11"/>
-      <c r="C25" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="67">
-        <v>79</v>
-      </c>
-      <c r="E25" s="53">
-        <v>121</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="54">
-        <f>HEX2DEC(F25)</f>
-        <v>211</v>
-      </c>
-      <c r="H25" s="20">
-        <v>8</v>
-      </c>
-      <c r="I25" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102" t="s">
-        <v>134</v>
-      </c>
-      <c r="N25" s="102"/>
-      <c r="O25" s="20">
-        <v>0</v>
-      </c>
-      <c r="P25" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R25" s="91"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="91"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="91"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="91"/>
-      <c r="AA25" s="91"/>
-      <c r="AB25" s="91"/>
-      <c r="AC25" s="91"/>
-      <c r="AD25" s="91"/>
-      <c r="AE25" s="91"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="91"/>
-      <c r="AH25" s="91"/>
-      <c r="AI25" s="91"/>
-      <c r="AJ25" s="91"/>
-      <c r="AK25" s="91"/>
-      <c r="AL25" s="91"/>
-      <c r="AM25" s="91"/>
-      <c r="AN25" s="91"/>
-    </row>
-    <row r="26" spans="2:42" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="91"/>
-      <c r="T26" s="91"/>
-      <c r="U26" s="91"/>
-      <c r="V26" s="91"/>
-      <c r="W26" s="91"/>
-      <c r="X26" s="91"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="91"/>
-      <c r="AB26" s="91"/>
-      <c r="AC26" s="91"/>
-      <c r="AD26" s="91"/>
-      <c r="AE26" s="91"/>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="91"/>
-      <c r="AH26" s="91"/>
-      <c r="AI26" s="91"/>
-      <c r="AJ26" s="91"/>
-      <c r="AK26" s="91"/>
-      <c r="AL26" s="91"/>
-      <c r="AM26" s="91"/>
-      <c r="AN26" s="91"/>
-    </row>
-    <row r="27" spans="2:42" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="91"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="91"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="91"/>
-      <c r="AC27" s="91"/>
-      <c r="AD27" s="91"/>
-      <c r="AE27" s="91"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="91"/>
-      <c r="AH27" s="91"/>
-      <c r="AI27" s="91"/>
-      <c r="AJ27" s="91"/>
-      <c r="AK27" s="91"/>
-      <c r="AL27" s="91"/>
-      <c r="AM27" s="91"/>
-      <c r="AN27" s="91"/>
-    </row>
-    <row r="28" spans="2:42" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="91"/>
-      <c r="V28" s="91"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="91"/>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="91"/>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="91"/>
-      <c r="AC28" s="91"/>
-      <c r="AD28" s="91"/>
-      <c r="AE28" s="91"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="91"/>
-      <c r="AH28" s="91"/>
-      <c r="AI28" s="91"/>
-      <c r="AJ28" s="91"/>
-      <c r="AK28" s="91"/>
-      <c r="AL28" s="91"/>
-      <c r="AM28" s="91"/>
-      <c r="AN28" s="91"/>
-    </row>
-    <row r="29" spans="2:42" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="91"/>
-      <c r="U29" s="91"/>
-      <c r="V29" s="91"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="91"/>
-      <c r="Y29" s="91"/>
-      <c r="Z29" s="91"/>
-      <c r="AA29" s="91"/>
-      <c r="AB29" s="91"/>
-      <c r="AC29" s="91"/>
-      <c r="AD29" s="91"/>
-      <c r="AE29" s="91"/>
-      <c r="AF29" s="91"/>
-      <c r="AG29" s="91"/>
-      <c r="AH29" s="91"/>
-      <c r="AI29" s="91"/>
-      <c r="AJ29" s="91"/>
-      <c r="AK29" s="91"/>
-      <c r="AL29" s="91"/>
-      <c r="AM29" s="91"/>
-      <c r="AN29" s="91"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
     </row>
     <row r="30" spans="2:42" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="92"/>
+      <c r="C30" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="67">
+        <v>79</v>
+      </c>
+      <c r="E30" s="53">
+        <v>121</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="54">
+        <f>HEX2DEC(F30)</f>
+        <v>211</v>
+      </c>
+      <c r="H30" s="20">
+        <v>8</v>
+      </c>
+      <c r="I30" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="N30" s="110"/>
+      <c r="O30" s="20">
+        <v>0</v>
+      </c>
+      <c r="P30" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="91"/>
       <c r="S30" s="91"/>
       <c r="T30" s="91"/>
       <c r="U30" s="91"/>
@@ -2857,97 +2953,196 @@
       <c r="AM30" s="91"/>
       <c r="AN30" s="91"/>
     </row>
-    <row r="31" spans="2:42" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="57"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="25"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="25"/>
-      <c r="AG31" s="25"/>
-      <c r="AH31" s="25"/>
-      <c r="AI31" s="25"/>
-      <c r="AJ31" s="25"/>
-      <c r="AK31" s="25"/>
-      <c r="AL31" s="25"/>
-      <c r="AM31" s="25"/>
-      <c r="AN31" s="25"/>
-    </row>
-    <row r="32" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="53">
-        <v>124</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="54">
-        <v>214</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:42" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="91"/>
+      <c r="U31" s="91"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="91"/>
+      <c r="AC31" s="91"/>
+      <c r="AD31" s="91"/>
+      <c r="AE31" s="91"/>
+      <c r="AF31" s="91"/>
+      <c r="AG31" s="91"/>
+      <c r="AH31" s="91"/>
+      <c r="AI31" s="91"/>
+      <c r="AJ31" s="91"/>
+      <c r="AK31" s="91"/>
+      <c r="AL31" s="91"/>
+      <c r="AM31" s="91"/>
+      <c r="AN31" s="91"/>
+    </row>
+    <row r="32" spans="2:42" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="91"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="91"/>
+      <c r="X32" s="91"/>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="91"/>
+      <c r="AA32" s="91"/>
+      <c r="AB32" s="91"/>
+      <c r="AC32" s="91"/>
+      <c r="AD32" s="91"/>
+      <c r="AE32" s="91"/>
+      <c r="AF32" s="91"/>
+      <c r="AG32" s="91"/>
+      <c r="AH32" s="91"/>
+      <c r="AI32" s="91"/>
+      <c r="AJ32" s="91"/>
+      <c r="AK32" s="91"/>
+      <c r="AL32" s="91"/>
+      <c r="AM32" s="91"/>
+      <c r="AN32" s="91"/>
+    </row>
+    <row r="33" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="91"/>
+      <c r="T33" s="91"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="91"/>
+      <c r="X33" s="91"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="91"/>
+      <c r="AE33" s="91"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="91"/>
+      <c r="AH33" s="91"/>
+      <c r="AI33" s="91"/>
+      <c r="AJ33" s="91"/>
+      <c r="AK33" s="91"/>
+      <c r="AL33" s="91"/>
+      <c r="AM33" s="91"/>
+      <c r="AN33" s="91"/>
+    </row>
+    <row r="34" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
-        <v>143</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="91"/>
+      <c r="AC34" s="91"/>
+      <c r="AD34" s="91"/>
+      <c r="AE34" s="91"/>
+      <c r="AF34" s="91"/>
+      <c r="AG34" s="91"/>
+      <c r="AH34" s="91"/>
+      <c r="AI34" s="91"/>
+      <c r="AJ34" s="91"/>
+      <c r="AK34" s="91"/>
+      <c r="AL34" s="91"/>
+      <c r="AM34" s="91"/>
+      <c r="AN34" s="91"/>
     </row>
     <row r="35" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="29"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="67"/>
-      <c r="E35" s="53"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="48"/>
-      <c r="G35" s="54"/>
-      <c r="I35" s="29"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="2"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="91"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="92"/>
       <c r="S35" s="91"/>
       <c r="T35" s="91"/>
       <c r="U35" s="91"/>
@@ -2971,561 +3166,490 @@
       <c r="AM35" s="91"/>
       <c r="AN35" s="91"/>
     </row>
-    <row r="36" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="11" t="s">
+    <row r="36" spans="2:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="25"/>
+      <c r="AK36" s="25"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="25"/>
+      <c r="AN36" s="25"/>
+    </row>
+    <row r="37" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="53">
+        <v>124</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="54">
+        <v>214</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="54"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="91"/>
+      <c r="S40" s="91"/>
+      <c r="T40" s="91"/>
+      <c r="U40" s="91"/>
+      <c r="V40" s="91"/>
+      <c r="W40" s="91"/>
+      <c r="X40" s="91"/>
+      <c r="Y40" s="91"/>
+      <c r="Z40" s="91"/>
+      <c r="AA40" s="91"/>
+      <c r="AB40" s="91"/>
+      <c r="AC40" s="91"/>
+      <c r="AD40" s="91"/>
+      <c r="AE40" s="91"/>
+      <c r="AF40" s="91"/>
+      <c r="AG40" s="91"/>
+      <c r="AH40" s="91"/>
+      <c r="AI40" s="91"/>
+      <c r="AJ40" s="91"/>
+      <c r="AK40" s="91"/>
+      <c r="AL40" s="91"/>
+      <c r="AM40" s="91"/>
+      <c r="AN40" s="91"/>
+    </row>
+    <row r="41" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="54"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="91"/>
-      <c r="T36" s="91"/>
-      <c r="U36" s="91"/>
-      <c r="V36" s="91"/>
-      <c r="W36" s="91"/>
-      <c r="X36" s="91"/>
-      <c r="Y36" s="91"/>
-      <c r="Z36" s="91"/>
-      <c r="AA36" s="91"/>
-      <c r="AB36" s="91"/>
-      <c r="AC36" s="91"/>
-      <c r="AD36" s="91"/>
-      <c r="AE36" s="91"/>
-      <c r="AF36" s="91"/>
-      <c r="AG36" s="91"/>
-      <c r="AH36" s="91"/>
-      <c r="AI36" s="91"/>
-      <c r="AJ36" s="91"/>
-      <c r="AK36" s="91"/>
-      <c r="AL36" s="91"/>
-      <c r="AM36" s="91"/>
-      <c r="AN36" s="91"/>
-    </row>
-    <row r="37" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="58"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="91"/>
-      <c r="S37" s="91"/>
-      <c r="T37" s="91"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="91"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="91"/>
-      <c r="Y37" s="91"/>
-      <c r="Z37" s="91"/>
-      <c r="AA37" s="91"/>
-      <c r="AB37" s="91"/>
-      <c r="AC37" s="91"/>
-      <c r="AD37" s="91"/>
-      <c r="AE37" s="91"/>
-      <c r="AF37" s="91"/>
-      <c r="AG37" s="91"/>
-      <c r="AH37" s="91"/>
-      <c r="AI37" s="91"/>
-      <c r="AJ37" s="91"/>
-      <c r="AK37" s="91"/>
-      <c r="AL37" s="91"/>
-      <c r="AM37" s="91"/>
-      <c r="AN37" s="91"/>
-    </row>
-    <row r="38" spans="2:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="54"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="91"/>
+      <c r="S41" s="91"/>
+      <c r="T41" s="91"/>
+      <c r="U41" s="91"/>
+      <c r="V41" s="91"/>
+      <c r="W41" s="91"/>
+      <c r="X41" s="91"/>
+      <c r="Y41" s="91"/>
+      <c r="Z41" s="91"/>
+      <c r="AA41" s="91"/>
+      <c r="AB41" s="91"/>
+      <c r="AC41" s="91"/>
+      <c r="AD41" s="91"/>
+      <c r="AE41" s="91"/>
+      <c r="AF41" s="91"/>
+      <c r="AG41" s="91"/>
+      <c r="AH41" s="91"/>
+      <c r="AI41" s="91"/>
+      <c r="AJ41" s="91"/>
+      <c r="AK41" s="91"/>
+      <c r="AL41" s="91"/>
+      <c r="AM41" s="91"/>
+      <c r="AN41" s="91"/>
+    </row>
+    <row r="42" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="58"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="91"/>
+      <c r="S42" s="91"/>
+      <c r="T42" s="91"/>
+      <c r="U42" s="91"/>
+      <c r="V42" s="91"/>
+      <c r="W42" s="91"/>
+      <c r="X42" s="91"/>
+      <c r="Y42" s="91"/>
+      <c r="Z42" s="91"/>
+      <c r="AA42" s="91"/>
+      <c r="AB42" s="91"/>
+      <c r="AC42" s="91"/>
+      <c r="AD42" s="91"/>
+      <c r="AE42" s="91"/>
+      <c r="AF42" s="91"/>
+      <c r="AG42" s="91"/>
+      <c r="AH42" s="91"/>
+      <c r="AI42" s="91"/>
+      <c r="AJ42" s="91"/>
+      <c r="AK42" s="91"/>
+      <c r="AL42" s="91"/>
+      <c r="AM42" s="91"/>
+      <c r="AN42" s="91"/>
+    </row>
+    <row r="43" spans="2:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="57"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="25"/>
-      <c r="AI38" s="25"/>
-      <c r="AJ38" s="25"/>
-      <c r="AK38" s="25"/>
-      <c r="AL38" s="25"/>
-      <c r="AM38" s="25"/>
-      <c r="AN38" s="25"/>
-    </row>
-    <row r="39" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="58" t="s">
+      <c r="C43" s="28"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="57"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="25"/>
+      <c r="AJ43" s="25"/>
+      <c r="AK43" s="25"/>
+      <c r="AL43" s="25"/>
+      <c r="AM43" s="25"/>
+      <c r="AN43" s="25"/>
+    </row>
+    <row r="44" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D44" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="53">
+      <c r="E44" s="53">
         <v>125</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F44" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="54">
+      <c r="G44" s="54">
         <v>215</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="8" t="s">
+    <row r="45" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="11" t="s">
+    <row r="46" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="42" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="11"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="91"/>
-      <c r="S44" s="91"/>
-      <c r="T44" s="91"/>
-      <c r="U44" s="91"/>
-      <c r="V44" s="91"/>
-      <c r="W44" s="91"/>
-      <c r="X44" s="91"/>
-      <c r="Y44" s="91"/>
-      <c r="Z44" s="91"/>
-      <c r="AA44" s="91"/>
-      <c r="AB44" s="91"/>
-      <c r="AC44" s="91"/>
-      <c r="AD44" s="91"/>
-      <c r="AE44" s="91"/>
-      <c r="AF44" s="91"/>
-      <c r="AG44" s="91"/>
-      <c r="AH44" s="91"/>
-      <c r="AI44" s="91"/>
-      <c r="AJ44" s="91"/>
-      <c r="AK44" s="91"/>
-      <c r="AL44" s="91"/>
-      <c r="AM44" s="91"/>
-      <c r="AN44" s="91"/>
-    </row>
-    <row r="45" spans="2:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="55"/>
-      <c r="F45" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="57">
-        <v>233</v>
-      </c>
-      <c r="H45" s="25">
-        <v>8</v>
-      </c>
-      <c r="I45" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K45" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L45" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="M45" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="N45" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="O45" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="P45" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q45" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="25"/>
-      <c r="AD45" s="25"/>
-      <c r="AE45" s="25"/>
-      <c r="AF45" s="25"/>
-      <c r="AG45" s="25"/>
-      <c r="AH45" s="25"/>
-      <c r="AI45" s="25"/>
-      <c r="AJ45" s="25"/>
-      <c r="AK45" s="25"/>
-      <c r="AL45" s="25"/>
-      <c r="AM45" s="25"/>
-      <c r="AN45" s="25"/>
-    </row>
-    <row r="46" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="3"/>
-      <c r="C46" s="29"/>
     </row>
     <row r="47" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" s="49">
-        <v>232</v>
-      </c>
-      <c r="H47" s="20">
-        <v>8</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="11"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="91"/>
+      <c r="S49" s="91"/>
+      <c r="T49" s="91"/>
+      <c r="U49" s="91"/>
+      <c r="V49" s="91"/>
+      <c r="W49" s="91"/>
+      <c r="X49" s="91"/>
+      <c r="Y49" s="91"/>
+      <c r="Z49" s="91"/>
+      <c r="AA49" s="91"/>
+      <c r="AB49" s="91"/>
+      <c r="AC49" s="91"/>
+      <c r="AD49" s="91"/>
+      <c r="AE49" s="91"/>
+      <c r="AF49" s="91"/>
+      <c r="AG49" s="91"/>
+      <c r="AH49" s="91"/>
+      <c r="AI49" s="91"/>
+      <c r="AJ49" s="91"/>
+      <c r="AK49" s="91"/>
+      <c r="AL49" s="91"/>
+      <c r="AM49" s="91"/>
+      <c r="AN49" s="91"/>
+    </row>
+    <row r="50" spans="2:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="55"/>
+      <c r="F50" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="57">
+        <v>233</v>
+      </c>
+      <c r="H50" s="25">
+        <v>8</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K50" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="M50" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N50" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="O50" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P50" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q50" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+      <c r="AA50" s="25"/>
+      <c r="AB50" s="25"/>
+      <c r="AC50" s="25"/>
+      <c r="AD50" s="25"/>
+      <c r="AE50" s="25"/>
+      <c r="AF50" s="25"/>
+      <c r="AG50" s="25"/>
+      <c r="AH50" s="25"/>
+      <c r="AI50" s="25"/>
+      <c r="AJ50" s="25"/>
+      <c r="AK50" s="25"/>
+      <c r="AL50" s="25"/>
+      <c r="AM50" s="25"/>
+      <c r="AN50" s="25"/>
+    </row>
+    <row r="51" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="3"/>
+      <c r="C51" s="29"/>
+    </row>
+    <row r="52" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" s="49">
+        <v>232</v>
+      </c>
+      <c r="H52" s="20">
+        <v>8</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="11" t="s">
+    <row r="54" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C54" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="67" t="s">
+      <c r="D54" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F54" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G49" s="49">
+      <c r="G54" s="49">
         <v>231</v>
-      </c>
-      <c r="H49" s="20">
-        <v>8</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="58"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="91"/>
-      <c r="S50" s="91"/>
-      <c r="T50" s="91"/>
-      <c r="U50" s="91"/>
-      <c r="V50" s="91"/>
-      <c r="W50" s="91"/>
-      <c r="X50" s="91"/>
-      <c r="Y50" s="91"/>
-      <c r="Z50" s="91"/>
-      <c r="AA50" s="91"/>
-      <c r="AB50" s="91"/>
-      <c r="AC50" s="91"/>
-      <c r="AD50" s="91"/>
-      <c r="AE50" s="91"/>
-      <c r="AF50" s="91"/>
-      <c r="AG50" s="91"/>
-      <c r="AH50" s="91"/>
-      <c r="AI50" s="91"/>
-      <c r="AJ50" s="91"/>
-      <c r="AK50" s="91"/>
-      <c r="AL50" s="91"/>
-      <c r="AM50" s="91"/>
-      <c r="AN50" s="91"/>
-    </row>
-    <row r="51" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="11"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K51" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="L51" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="M51" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="N51" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="O51" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="91"/>
-      <c r="S51" s="91"/>
-      <c r="T51" s="91"/>
-      <c r="U51" s="91"/>
-      <c r="V51" s="91"/>
-      <c r="W51" s="91"/>
-      <c r="X51" s="91"/>
-      <c r="Y51" s="91"/>
-      <c r="Z51" s="91"/>
-      <c r="AA51" s="91"/>
-      <c r="AB51" s="91"/>
-      <c r="AC51" s="91"/>
-      <c r="AD51" s="91"/>
-      <c r="AE51" s="91"/>
-      <c r="AF51" s="91"/>
-      <c r="AG51" s="91"/>
-      <c r="AH51" s="91"/>
-      <c r="AI51" s="91"/>
-      <c r="AJ51" s="91"/>
-      <c r="AK51" s="91"/>
-      <c r="AL51" s="91"/>
-      <c r="AM51" s="91"/>
-      <c r="AN51" s="91"/>
-    </row>
-    <row r="52" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J52" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="K52" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="L52" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="M52" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="N52" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="O52" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-    </row>
-    <row r="54" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="47">
-        <v>122</v>
-      </c>
-      <c r="F54" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="G54" s="49">
-        <v>230</v>
       </c>
       <c r="H54" s="20">
         <v>8</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J54" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="K54" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="L54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="M54" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N54" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="O54" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>67</v>
       </c>
       <c r="P54" s="1" t="s">
@@ -3535,711 +3659,629 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-    </row>
-    <row r="56" spans="2:40" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="10"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="25"/>
-      <c r="X56" s="25"/>
-      <c r="Y56" s="25"/>
-      <c r="Z56" s="25"/>
-      <c r="AA56" s="25"/>
-      <c r="AB56" s="25"/>
-      <c r="AC56" s="25"/>
-      <c r="AD56" s="25"/>
-      <c r="AE56" s="25"/>
-      <c r="AF56" s="25"/>
-      <c r="AG56" s="25"/>
-      <c r="AH56" s="25"/>
-      <c r="AI56" s="25"/>
-      <c r="AJ56" s="25"/>
-      <c r="AK56" s="25"/>
-      <c r="AL56" s="25"/>
-      <c r="AM56" s="25"/>
-      <c r="AN56" s="25"/>
-    </row>
-    <row r="57" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="11"/>
-      <c r="C57" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="67">
-        <v>77</v>
-      </c>
-      <c r="E57" s="53">
-        <v>119</v>
-      </c>
-      <c r="F57" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G57" s="54">
-        <v>234</v>
-      </c>
-      <c r="H57" s="20"/>
-      <c r="I57" s="2" t="s">
-        <v>51</v>
-      </c>
+    <row r="55" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="58"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="91"/>
+      <c r="S55" s="91"/>
+      <c r="T55" s="91"/>
+      <c r="U55" s="91"/>
+      <c r="V55" s="91"/>
+      <c r="W55" s="91"/>
+      <c r="X55" s="91"/>
+      <c r="Y55" s="91"/>
+      <c r="Z55" s="91"/>
+      <c r="AA55" s="91"/>
+      <c r="AB55" s="91"/>
+      <c r="AC55" s="91"/>
+      <c r="AD55" s="91"/>
+      <c r="AE55" s="91"/>
+      <c r="AF55" s="91"/>
+      <c r="AG55" s="91"/>
+      <c r="AH55" s="91"/>
+      <c r="AI55" s="91"/>
+      <c r="AJ55" s="91"/>
+      <c r="AK55" s="91"/>
+      <c r="AL55" s="91"/>
+      <c r="AM55" s="91"/>
+      <c r="AN55" s="91"/>
+    </row>
+    <row r="56" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="11"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K56" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L56" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="M56" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="N56" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="O56" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="91"/>
+      <c r="S56" s="91"/>
+      <c r="T56" s="91"/>
+      <c r="U56" s="91"/>
+      <c r="V56" s="91"/>
+      <c r="W56" s="91"/>
+      <c r="X56" s="91"/>
+      <c r="Y56" s="91"/>
+      <c r="Z56" s="91"/>
+      <c r="AA56" s="91"/>
+      <c r="AB56" s="91"/>
+      <c r="AC56" s="91"/>
+      <c r="AD56" s="91"/>
+      <c r="AE56" s="91"/>
+      <c r="AF56" s="91"/>
+      <c r="AG56" s="91"/>
+      <c r="AH56" s="91"/>
+      <c r="AI56" s="91"/>
+      <c r="AJ56" s="91"/>
+      <c r="AK56" s="91"/>
+      <c r="AL56" s="91"/>
+      <c r="AM56" s="91"/>
+      <c r="AN56" s="91"/>
+    </row>
+    <row r="57" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J57" s="20" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="L57" s="20" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="N57" s="20" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="P57" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q57" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="91"/>
-      <c r="S57" s="91"/>
-      <c r="T57" s="91"/>
-      <c r="U57" s="91"/>
-      <c r="V57" s="91"/>
-      <c r="W57" s="91"/>
-      <c r="X57" s="91"/>
-      <c r="Y57" s="91"/>
-      <c r="Z57" s="91"/>
-      <c r="AA57" s="91"/>
-      <c r="AB57" s="91"/>
-      <c r="AC57" s="91"/>
-      <c r="AD57" s="91"/>
-      <c r="AE57" s="91"/>
-      <c r="AF57" s="91"/>
-      <c r="AG57" s="91"/>
-      <c r="AH57" s="91"/>
-      <c r="AI57" s="91"/>
-      <c r="AJ57" s="91"/>
-      <c r="AK57" s="91"/>
-      <c r="AL57" s="91"/>
-      <c r="AM57" s="91"/>
-      <c r="AN57" s="91"/>
-    </row>
-    <row r="58" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="11"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="2"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
       <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="91"/>
-      <c r="S58" s="91"/>
-      <c r="T58" s="91"/>
-      <c r="U58" s="91"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
-      <c r="X58" s="91"/>
-      <c r="Y58" s="91"/>
-      <c r="Z58" s="91"/>
-      <c r="AA58" s="91"/>
-      <c r="AB58" s="91"/>
-      <c r="AC58" s="91"/>
-      <c r="AD58" s="91"/>
-      <c r="AE58" s="91"/>
-      <c r="AF58" s="91"/>
-      <c r="AG58" s="91"/>
-      <c r="AH58" s="91"/>
-      <c r="AI58" s="91"/>
-      <c r="AJ58" s="91"/>
-      <c r="AK58" s="91"/>
-      <c r="AL58" s="91"/>
-      <c r="AM58" s="91"/>
-      <c r="AN58" s="91"/>
-    </row>
-    <row r="59" spans="2:40" s="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="83"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="89"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
-      <c r="Q59" s="88"/>
-      <c r="R59" s="88"/>
-      <c r="S59" s="88"/>
-      <c r="T59" s="88"/>
-      <c r="U59" s="88"/>
-      <c r="V59" s="88"/>
-      <c r="W59" s="88"/>
-      <c r="X59" s="88"/>
-      <c r="Y59" s="88"/>
-      <c r="Z59" s="88"/>
-      <c r="AA59" s="88"/>
-      <c r="AB59" s="88"/>
-      <c r="AC59" s="88"/>
-      <c r="AD59" s="88"/>
-      <c r="AE59" s="88"/>
-      <c r="AF59" s="88"/>
-      <c r="AG59" s="88"/>
-      <c r="AH59" s="88"/>
-      <c r="AI59" s="88"/>
-      <c r="AJ59" s="88"/>
-      <c r="AK59" s="88"/>
-      <c r="AL59" s="88"/>
-      <c r="AM59" s="88"/>
-      <c r="AN59" s="88"/>
-    </row>
-    <row r="60" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="11"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="70"/>
-      <c r="O60" s="70"/>
-      <c r="P60" s="70"/>
-      <c r="Q60" s="70"/>
-      <c r="R60" s="91"/>
-      <c r="S60" s="91"/>
-      <c r="T60" s="91"/>
-      <c r="U60" s="91"/>
-      <c r="V60" s="91"/>
-      <c r="W60" s="91"/>
-      <c r="X60" s="91"/>
-      <c r="Y60" s="91"/>
-      <c r="Z60" s="91"/>
-      <c r="AA60" s="91"/>
-      <c r="AB60" s="91"/>
-      <c r="AC60" s="91"/>
-      <c r="AD60" s="91"/>
-      <c r="AE60" s="91"/>
-      <c r="AF60" s="91"/>
-      <c r="AG60" s="91"/>
-      <c r="AH60" s="91"/>
-      <c r="AI60" s="91"/>
-      <c r="AJ60" s="91"/>
-      <c r="AK60" s="91"/>
-      <c r="AL60" s="91"/>
-      <c r="AM60" s="91"/>
-      <c r="AN60" s="91"/>
-    </row>
-    <row r="61" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="53"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="54">
-        <v>200</v>
-      </c>
-      <c r="H61" s="70">
-        <v>3</v>
-      </c>
-      <c r="I61" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="J61" s="70">
-        <v>0</v>
-      </c>
-      <c r="K61" s="70">
-        <v>0</v>
-      </c>
-      <c r="L61" s="70" t="s">
+    </row>
+    <row r="59" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="47">
+        <v>122</v>
+      </c>
+      <c r="F59" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" s="49">
+        <v>230</v>
+      </c>
+      <c r="H59" s="20">
+        <v>8</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J59" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K59" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="L59" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="M59" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="N59" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O59" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M61" s="70"/>
-      <c r="N61" s="70"/>
-      <c r="O61" s="70"/>
-      <c r="P61" s="70"/>
-      <c r="Q61" s="70"/>
-      <c r="R61" s="91"/>
-      <c r="S61" s="91"/>
-      <c r="T61" s="91"/>
-      <c r="U61" s="91"/>
-      <c r="V61" s="91"/>
-      <c r="W61" s="91"/>
-      <c r="X61" s="91"/>
-      <c r="Y61" s="91"/>
-      <c r="Z61" s="91"/>
-      <c r="AA61" s="91"/>
-      <c r="AB61" s="91"/>
-      <c r="AC61" s="91"/>
-      <c r="AD61" s="91"/>
-      <c r="AE61" s="91"/>
-      <c r="AF61" s="91"/>
-      <c r="AG61" s="91"/>
-      <c r="AH61" s="91"/>
-      <c r="AI61" s="91"/>
-      <c r="AJ61" s="91"/>
-      <c r="AK61" s="91"/>
-      <c r="AL61" s="91"/>
-      <c r="AM61" s="91"/>
-      <c r="AN61" s="91"/>
-    </row>
-    <row r="62" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="90"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="100"/>
-      <c r="I62" s="99"/>
-      <c r="J62" s="100"/>
-      <c r="K62" s="100"/>
-      <c r="L62" s="100"/>
-      <c r="M62" s="100"/>
-      <c r="N62" s="100"/>
-      <c r="O62" s="100"/>
-      <c r="P62" s="100"/>
-      <c r="Q62" s="100"/>
-      <c r="R62" s="100"/>
-      <c r="S62" s="100"/>
-      <c r="T62" s="100"/>
-      <c r="U62" s="100"/>
-      <c r="V62" s="100"/>
-      <c r="W62" s="100"/>
-      <c r="X62" s="100"/>
-      <c r="Y62" s="100"/>
-      <c r="Z62" s="100"/>
-      <c r="AA62" s="100"/>
-      <c r="AB62" s="100"/>
-      <c r="AC62" s="100"/>
-      <c r="AD62" s="100"/>
-      <c r="AE62" s="100"/>
-      <c r="AF62" s="100"/>
-      <c r="AG62" s="100"/>
-      <c r="AH62" s="100"/>
-      <c r="AI62" s="100"/>
-      <c r="AJ62" s="100"/>
-      <c r="AK62" s="100"/>
-      <c r="AL62" s="100"/>
-      <c r="AM62" s="100"/>
-      <c r="AN62" s="100"/>
+    </row>
+    <row r="60" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+    </row>
+    <row r="61" spans="2:40" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="10"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="25"/>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="25"/>
+      <c r="Z61" s="25"/>
+      <c r="AA61" s="25"/>
+      <c r="AB61" s="25"/>
+      <c r="AC61" s="25"/>
+      <c r="AD61" s="25"/>
+      <c r="AE61" s="25"/>
+      <c r="AF61" s="25"/>
+      <c r="AG61" s="25"/>
+      <c r="AH61" s="25"/>
+      <c r="AI61" s="25"/>
+      <c r="AJ61" s="25"/>
+      <c r="AK61" s="25"/>
+      <c r="AL61" s="25"/>
+      <c r="AM61" s="25"/>
+      <c r="AN61" s="25"/>
+    </row>
+    <row r="62" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="11"/>
+      <c r="C62" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="67">
+        <v>77</v>
+      </c>
+      <c r="E62" s="53">
+        <v>119</v>
+      </c>
+      <c r="F62" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="54">
+        <v>234</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J62" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K62" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L62" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M62" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N62" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O62" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="P62" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q62" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="91"/>
+      <c r="S62" s="91"/>
+      <c r="T62" s="91"/>
+      <c r="U62" s="91"/>
+      <c r="V62" s="91"/>
+      <c r="W62" s="91"/>
+      <c r="X62" s="91"/>
+      <c r="Y62" s="91"/>
+      <c r="Z62" s="91"/>
+      <c r="AA62" s="91"/>
+      <c r="AB62" s="91"/>
+      <c r="AC62" s="91"/>
+      <c r="AD62" s="91"/>
+      <c r="AE62" s="91"/>
+      <c r="AF62" s="91"/>
+      <c r="AG62" s="91"/>
+      <c r="AH62" s="91"/>
+      <c r="AI62" s="91"/>
+      <c r="AJ62" s="91"/>
+      <c r="AK62" s="91"/>
+      <c r="AL62" s="91"/>
+      <c r="AM62" s="91"/>
+      <c r="AN62" s="91"/>
     </row>
     <row r="63" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C63" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="D63" s="67">
-        <v>126</v>
-      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="67"/>
       <c r="E63" s="53"/>
       <c r="F63" s="48"/>
-      <c r="G63" s="54">
-        <v>126</v>
-      </c>
-      <c r="H63" s="100">
-        <v>5</v>
-      </c>
-      <c r="I63" s="99" t="s">
-        <v>211</v>
-      </c>
-      <c r="J63" s="100" t="s">
-        <v>212</v>
-      </c>
-      <c r="K63" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="L63" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="M63" s="100" t="s">
-        <v>215</v>
-      </c>
-      <c r="N63" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="O63" s="100"/>
-      <c r="P63" s="100"/>
-      <c r="Q63" s="100"/>
-      <c r="R63" s="100"/>
-      <c r="S63" s="100"/>
-      <c r="T63" s="100"/>
-      <c r="U63" s="100"/>
-      <c r="V63" s="100"/>
-      <c r="W63" s="100"/>
-      <c r="X63" s="100"/>
-      <c r="Y63" s="100"/>
-      <c r="Z63" s="100"/>
-      <c r="AA63" s="100"/>
-      <c r="AB63" s="100"/>
-      <c r="AC63" s="100"/>
-      <c r="AD63" s="100"/>
-      <c r="AE63" s="100"/>
-      <c r="AF63" s="100"/>
-      <c r="AG63" s="100"/>
-      <c r="AH63" s="100"/>
-      <c r="AI63" s="100"/>
-      <c r="AJ63" s="100"/>
-      <c r="AK63" s="100"/>
-      <c r="AL63" s="100"/>
-      <c r="AM63" s="100"/>
-      <c r="AN63" s="100"/>
-    </row>
-    <row r="64" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="90"/>
-      <c r="C64" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="D64" s="67">
-        <v>123</v>
-      </c>
-      <c r="E64" s="53"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="54">
-        <v>123</v>
-      </c>
-      <c r="H64" s="100">
-        <v>5</v>
-      </c>
-      <c r="I64" s="99" t="s">
-        <v>217</v>
-      </c>
-      <c r="J64" s="100" t="s">
-        <v>218</v>
-      </c>
-      <c r="K64" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="L64" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="M64" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="N64" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="O64" s="100"/>
-      <c r="P64" s="100"/>
-      <c r="Q64" s="100"/>
-      <c r="R64" s="100"/>
-      <c r="S64" s="100"/>
-      <c r="T64" s="100"/>
-      <c r="U64" s="100"/>
-      <c r="V64" s="100"/>
-      <c r="W64" s="100"/>
-      <c r="X64" s="100"/>
-      <c r="Y64" s="100"/>
-      <c r="Z64" s="100"/>
-      <c r="AA64" s="100"/>
-      <c r="AB64" s="100"/>
-      <c r="AC64" s="100"/>
-      <c r="AD64" s="100"/>
-      <c r="AE64" s="100"/>
-      <c r="AF64" s="100"/>
-      <c r="AG64" s="100"/>
-      <c r="AH64" s="100"/>
-      <c r="AI64" s="100"/>
-      <c r="AJ64" s="100"/>
-      <c r="AK64" s="100"/>
-      <c r="AL64" s="100"/>
-      <c r="AM64" s="100"/>
-      <c r="AN64" s="100"/>
-    </row>
-    <row r="65" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="90"/>
-      <c r="C65" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="D65" s="67">
-        <v>121</v>
-      </c>
+      <c r="G63" s="54"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="91"/>
+      <c r="S63" s="91"/>
+      <c r="T63" s="91"/>
+      <c r="U63" s="91"/>
+      <c r="V63" s="91"/>
+      <c r="W63" s="91"/>
+      <c r="X63" s="91"/>
+      <c r="Y63" s="91"/>
+      <c r="Z63" s="91"/>
+      <c r="AA63" s="91"/>
+      <c r="AB63" s="91"/>
+      <c r="AC63" s="91"/>
+      <c r="AD63" s="91"/>
+      <c r="AE63" s="91"/>
+      <c r="AF63" s="91"/>
+      <c r="AG63" s="91"/>
+      <c r="AH63" s="91"/>
+      <c r="AI63" s="91"/>
+      <c r="AJ63" s="91"/>
+      <c r="AK63" s="91"/>
+      <c r="AL63" s="91"/>
+      <c r="AM63" s="91"/>
+      <c r="AN63" s="91"/>
+    </row>
+    <row r="64" spans="2:40" s="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="83"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="88"/>
+      <c r="M64" s="88"/>
+      <c r="N64" s="88"/>
+      <c r="O64" s="88"/>
+      <c r="P64" s="88"/>
+      <c r="Q64" s="88"/>
+      <c r="R64" s="88"/>
+      <c r="S64" s="88"/>
+      <c r="T64" s="88"/>
+      <c r="U64" s="88"/>
+      <c r="V64" s="88"/>
+      <c r="W64" s="88"/>
+      <c r="X64" s="88"/>
+      <c r="Y64" s="88"/>
+      <c r="Z64" s="88"/>
+      <c r="AA64" s="88"/>
+      <c r="AB64" s="88"/>
+      <c r="AC64" s="88"/>
+      <c r="AD64" s="88"/>
+      <c r="AE64" s="88"/>
+      <c r="AF64" s="88"/>
+      <c r="AG64" s="88"/>
+      <c r="AH64" s="88"/>
+      <c r="AI64" s="88"/>
+      <c r="AJ64" s="88"/>
+      <c r="AK64" s="88"/>
+      <c r="AL64" s="88"/>
+      <c r="AM64" s="88"/>
+      <c r="AN64" s="88"/>
+    </row>
+    <row r="65" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="11"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="67"/>
       <c r="E65" s="53"/>
       <c r="F65" s="48"/>
-      <c r="G65" s="54">
-        <v>121</v>
-      </c>
-      <c r="H65" s="100">
-        <v>5</v>
-      </c>
-      <c r="I65" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="J65" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="K65" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="L65" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="M65" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="N65" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="O65" s="100"/>
-      <c r="P65" s="100"/>
-      <c r="Q65" s="100"/>
-      <c r="R65" s="100"/>
-      <c r="S65" s="100"/>
-      <c r="T65" s="100"/>
-      <c r="U65" s="100"/>
-      <c r="V65" s="100"/>
-      <c r="W65" s="100"/>
-      <c r="X65" s="100"/>
-      <c r="Y65" s="100"/>
-      <c r="Z65" s="100"/>
-      <c r="AA65" s="100"/>
-      <c r="AB65" s="100"/>
-      <c r="AC65" s="100"/>
-      <c r="AD65" s="100"/>
-      <c r="AE65" s="100"/>
-      <c r="AF65" s="100"/>
-      <c r="AG65" s="100"/>
-      <c r="AH65" s="100"/>
-      <c r="AI65" s="100"/>
-      <c r="AJ65" s="100"/>
-      <c r="AK65" s="100"/>
-      <c r="AL65" s="100"/>
-      <c r="AM65" s="100"/>
-      <c r="AN65" s="100"/>
-    </row>
-    <row r="66" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="90"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="71"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="70"/>
+      <c r="M65" s="70"/>
+      <c r="N65" s="70"/>
+      <c r="O65" s="70"/>
+      <c r="P65" s="70"/>
+      <c r="Q65" s="70"/>
+      <c r="R65" s="91"/>
+      <c r="S65" s="91"/>
+      <c r="T65" s="91"/>
+      <c r="U65" s="91"/>
+      <c r="V65" s="91"/>
+      <c r="W65" s="91"/>
+      <c r="X65" s="91"/>
+      <c r="Y65" s="91"/>
+      <c r="Z65" s="91"/>
+      <c r="AA65" s="91"/>
+      <c r="AB65" s="91"/>
+      <c r="AC65" s="91"/>
+      <c r="AD65" s="91"/>
+      <c r="AE65" s="91"/>
+      <c r="AF65" s="91"/>
+      <c r="AG65" s="91"/>
+      <c r="AH65" s="91"/>
+      <c r="AI65" s="91"/>
+      <c r="AJ65" s="91"/>
+      <c r="AK65" s="91"/>
+      <c r="AL65" s="91"/>
+      <c r="AM65" s="91"/>
+      <c r="AN65" s="91"/>
+    </row>
+    <row r="66" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="11" t="s">
+        <v>221</v>
+      </c>
       <c r="C66" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" s="67">
-        <v>120</v>
+        <v>171</v>
+      </c>
+      <c r="D66" s="67" t="s">
+        <v>12</v>
       </c>
       <c r="E66" s="53"/>
       <c r="F66" s="48"/>
       <c r="G66" s="54">
-        <v>120</v>
-      </c>
-      <c r="H66" s="100">
-        <v>5</v>
-      </c>
-      <c r="I66" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="J66" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="K66" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="L66" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="M66" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="N66" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="H66" s="70">
+        <v>3</v>
+      </c>
+      <c r="I66" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="J66" s="70">
+        <v>0</v>
+      </c>
+      <c r="K66" s="70">
+        <v>0</v>
+      </c>
+      <c r="L66" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="O66" s="100"/>
-      <c r="P66" s="100"/>
-      <c r="Q66" s="100"/>
-      <c r="R66" s="100"/>
-      <c r="S66" s="100"/>
-      <c r="T66" s="100"/>
-      <c r="U66" s="100"/>
-      <c r="V66" s="100"/>
-      <c r="W66" s="100"/>
-      <c r="X66" s="100"/>
-      <c r="Y66" s="100"/>
-      <c r="Z66" s="100"/>
-      <c r="AA66" s="100"/>
-      <c r="AB66" s="100"/>
-      <c r="AC66" s="100"/>
-      <c r="AD66" s="100"/>
-      <c r="AE66" s="100"/>
-      <c r="AF66" s="100"/>
-      <c r="AG66" s="100"/>
-      <c r="AH66" s="100"/>
-      <c r="AI66" s="100"/>
-      <c r="AJ66" s="100"/>
-      <c r="AK66" s="100"/>
-      <c r="AL66" s="100"/>
-      <c r="AM66" s="100"/>
-      <c r="AN66" s="100"/>
-    </row>
-    <row r="67" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="11"/>
+      <c r="M66" s="70"/>
+      <c r="N66" s="70"/>
+      <c r="O66" s="70"/>
+      <c r="P66" s="70"/>
+      <c r="Q66" s="70"/>
+      <c r="R66" s="91"/>
+      <c r="S66" s="91"/>
+      <c r="T66" s="91"/>
+      <c r="U66" s="91"/>
+      <c r="V66" s="91"/>
+      <c r="W66" s="91"/>
+      <c r="X66" s="91"/>
+      <c r="Y66" s="91"/>
+      <c r="Z66" s="91"/>
+      <c r="AA66" s="91"/>
+      <c r="AB66" s="91"/>
+      <c r="AC66" s="91"/>
+      <c r="AD66" s="91"/>
+      <c r="AE66" s="91"/>
+      <c r="AF66" s="91"/>
+      <c r="AG66" s="91"/>
+      <c r="AH66" s="91"/>
+      <c r="AI66" s="91"/>
+      <c r="AJ66" s="91"/>
+      <c r="AK66" s="91"/>
+      <c r="AL66" s="91"/>
+      <c r="AM66" s="91"/>
+      <c r="AN66" s="91"/>
+    </row>
+    <row r="67" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="90"/>
       <c r="C67" s="58"/>
       <c r="D67" s="67"/>
       <c r="E67" s="53"/>
       <c r="F67" s="48"/>
       <c r="G67" s="54"/>
-      <c r="H67" s="70"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="70"/>
-      <c r="K67" s="70"/>
-      <c r="L67" s="70"/>
-      <c r="M67" s="70"/>
-      <c r="N67" s="70"/>
-      <c r="O67" s="70"/>
-      <c r="P67" s="70"/>
-      <c r="Q67" s="70"/>
-      <c r="R67" s="91"/>
-      <c r="S67" s="91"/>
-      <c r="T67" s="91"/>
-      <c r="U67" s="91"/>
-      <c r="V67" s="91"/>
-      <c r="W67" s="91"/>
-      <c r="X67" s="91"/>
-      <c r="Y67" s="91"/>
-      <c r="Z67" s="91"/>
-      <c r="AA67" s="91"/>
-      <c r="AB67" s="91"/>
-      <c r="AC67" s="91"/>
-      <c r="AD67" s="91"/>
-      <c r="AE67" s="91"/>
-      <c r="AF67" s="91"/>
-      <c r="AG67" s="91"/>
-      <c r="AH67" s="91"/>
-      <c r="AI67" s="91"/>
-      <c r="AJ67" s="91"/>
-      <c r="AK67" s="91"/>
-      <c r="AL67" s="91"/>
-      <c r="AM67" s="91"/>
-      <c r="AN67" s="91"/>
+      <c r="H67" s="100"/>
+      <c r="I67" s="99"/>
+      <c r="J67" s="100"/>
+      <c r="K67" s="100"/>
+      <c r="L67" s="100"/>
+      <c r="M67" s="100"/>
+      <c r="N67" s="100"/>
+      <c r="O67" s="100"/>
+      <c r="P67" s="100"/>
+      <c r="Q67" s="100"/>
+      <c r="R67" s="100"/>
+      <c r="S67" s="100"/>
+      <c r="T67" s="100"/>
+      <c r="U67" s="100"/>
+      <c r="V67" s="100"/>
+      <c r="W67" s="100"/>
+      <c r="X67" s="100"/>
+      <c r="Y67" s="100"/>
+      <c r="Z67" s="100"/>
+      <c r="AA67" s="100"/>
+      <c r="AB67" s="100"/>
+      <c r="AC67" s="100"/>
+      <c r="AD67" s="100"/>
+      <c r="AE67" s="100"/>
+      <c r="AF67" s="100"/>
+      <c r="AG67" s="100"/>
+      <c r="AH67" s="100"/>
+      <c r="AI67" s="100"/>
+      <c r="AJ67" s="100"/>
+      <c r="AK67" s="100"/>
+      <c r="AL67" s="100"/>
+      <c r="AM67" s="100"/>
+      <c r="AN67" s="100"/>
     </row>
     <row r="68" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C68" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D68" s="67" t="s">
-        <v>12</v>
+        <v>198</v>
+      </c>
+      <c r="D68" s="67">
+        <v>126</v>
       </c>
       <c r="E68" s="53"/>
       <c r="F68" s="48"/>
       <c r="G68" s="54">
-        <v>201</v>
-      </c>
-      <c r="H68" s="70">
+        <v>126</v>
+      </c>
+      <c r="H68" s="100">
         <v>5</v>
       </c>
-      <c r="I68" s="71">
-        <v>201</v>
-      </c>
-      <c r="J68" s="70">
-        <v>201</v>
-      </c>
-      <c r="K68" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="L68" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="M68" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="N68" s="70" t="s">
+      <c r="I68" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="J68" s="100" t="s">
+        <v>212</v>
+      </c>
+      <c r="K68" s="100" t="s">
+        <v>213</v>
+      </c>
+      <c r="L68" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="M68" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="N68" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="70"/>
-      <c r="P68" s="70"/>
-      <c r="Q68" s="70"/>
-      <c r="R68" s="91"/>
-      <c r="S68" s="91"/>
-      <c r="T68" s="91"/>
-      <c r="U68" s="91"/>
-      <c r="V68" s="91"/>
-      <c r="W68" s="91"/>
-      <c r="X68" s="91"/>
-      <c r="Y68" s="91"/>
-      <c r="Z68" s="91"/>
-      <c r="AA68" s="91"/>
-      <c r="AB68" s="91"/>
-      <c r="AC68" s="91"/>
-      <c r="AD68" s="91"/>
-      <c r="AE68" s="91"/>
-      <c r="AF68" s="91"/>
-      <c r="AG68" s="91"/>
-      <c r="AH68" s="91"/>
-      <c r="AI68" s="91"/>
-      <c r="AJ68" s="91"/>
-      <c r="AK68" s="91"/>
-      <c r="AL68" s="91"/>
-      <c r="AM68" s="91"/>
-      <c r="AN68" s="91"/>
-    </row>
-    <row r="69" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="11"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="67"/>
+      <c r="O68" s="100"/>
+      <c r="P68" s="100"/>
+      <c r="Q68" s="100"/>
+      <c r="R68" s="100"/>
+      <c r="S68" s="100"/>
+      <c r="T68" s="100"/>
+      <c r="U68" s="100"/>
+      <c r="V68" s="100"/>
+      <c r="W68" s="100"/>
+      <c r="X68" s="100"/>
+      <c r="Y68" s="100"/>
+      <c r="Z68" s="100"/>
+      <c r="AA68" s="100"/>
+      <c r="AB68" s="100"/>
+      <c r="AC68" s="100"/>
+      <c r="AD68" s="100"/>
+      <c r="AE68" s="100"/>
+      <c r="AF68" s="100"/>
+      <c r="AG68" s="100"/>
+      <c r="AH68" s="100"/>
+      <c r="AI68" s="100"/>
+      <c r="AJ68" s="100"/>
+      <c r="AK68" s="100"/>
+      <c r="AL68" s="100"/>
+      <c r="AM68" s="100"/>
+      <c r="AN68" s="100"/>
+    </row>
+    <row r="69" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="90"/>
+      <c r="C69" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="67">
+        <v>123</v>
+      </c>
       <c r="E69" s="53"/>
       <c r="F69" s="48"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="100"/>
-      <c r="I69" s="99"/>
-      <c r="J69" s="100"/>
-      <c r="K69" s="100"/>
-      <c r="L69" s="100"/>
-      <c r="M69" s="100"/>
-      <c r="N69" s="100"/>
+      <c r="G69" s="54">
+        <v>123</v>
+      </c>
+      <c r="H69" s="100">
+        <v>5</v>
+      </c>
+      <c r="I69" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="J69" s="100" t="s">
+        <v>218</v>
+      </c>
+      <c r="K69" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="L69" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="M69" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="N69" s="100" t="s">
+        <v>20</v>
+      </c>
       <c r="O69" s="100"/>
       <c r="P69" s="100"/>
       <c r="Q69" s="100"/>
@@ -4268,78 +4310,100 @@
       <c r="AN69" s="100"/>
     </row>
     <row r="70" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C70" s="110" t="s">
-        <v>216</v>
-      </c>
-      <c r="D70" s="67" t="s">
-        <v>12</v>
+      <c r="B70" s="90"/>
+      <c r="C70" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="67">
+        <v>121</v>
       </c>
       <c r="E70" s="53"/>
       <c r="F70" s="48"/>
       <c r="G70" s="54">
-        <v>202</v>
-      </c>
-      <c r="H70" s="70">
-        <v>3</v>
-      </c>
-      <c r="I70" s="71">
-        <v>202</v>
-      </c>
-      <c r="J70" s="70">
-        <v>202</v>
-      </c>
-      <c r="K70" s="70">
+        <v>121</v>
+      </c>
+      <c r="H70" s="100">
         <v>5</v>
       </c>
-      <c r="L70" s="70" t="s">
+      <c r="I70" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="J70" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="K70" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="L70" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="M70" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="N70" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="M70" s="70"/>
-      <c r="N70" s="70"/>
-      <c r="O70" s="70"/>
-      <c r="P70" s="70"/>
-      <c r="Q70" s="70"/>
-      <c r="R70" s="91"/>
-      <c r="S70" s="91"/>
-      <c r="T70" s="91"/>
-      <c r="U70" s="91"/>
-      <c r="V70" s="91"/>
-      <c r="W70" s="91"/>
-      <c r="X70" s="91"/>
-      <c r="Y70" s="91"/>
-      <c r="Z70" s="91"/>
-      <c r="AA70" s="91"/>
-      <c r="AB70" s="91"/>
-      <c r="AC70" s="91"/>
-      <c r="AD70" s="91"/>
-      <c r="AE70" s="91"/>
-      <c r="AF70" s="91"/>
-      <c r="AG70" s="91"/>
-      <c r="AH70" s="91"/>
-      <c r="AI70" s="91"/>
-      <c r="AJ70" s="91"/>
-      <c r="AK70" s="91"/>
-      <c r="AL70" s="91"/>
-      <c r="AM70" s="91"/>
-      <c r="AN70" s="91"/>
+      <c r="O70" s="100"/>
+      <c r="P70" s="100"/>
+      <c r="Q70" s="100"/>
+      <c r="R70" s="100"/>
+      <c r="S70" s="100"/>
+      <c r="T70" s="100"/>
+      <c r="U70" s="100"/>
+      <c r="V70" s="100"/>
+      <c r="W70" s="100"/>
+      <c r="X70" s="100"/>
+      <c r="Y70" s="100"/>
+      <c r="Z70" s="100"/>
+      <c r="AA70" s="100"/>
+      <c r="AB70" s="100"/>
+      <c r="AC70" s="100"/>
+      <c r="AD70" s="100"/>
+      <c r="AE70" s="100"/>
+      <c r="AF70" s="100"/>
+      <c r="AG70" s="100"/>
+      <c r="AH70" s="100"/>
+      <c r="AI70" s="100"/>
+      <c r="AJ70" s="100"/>
+      <c r="AK70" s="100"/>
+      <c r="AL70" s="100"/>
+      <c r="AM70" s="100"/>
+      <c r="AN70" s="100"/>
     </row>
     <row r="71" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="11"/>
-      <c r="C71" s="110"/>
-      <c r="D71" s="67"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D71" s="67">
+        <v>120</v>
+      </c>
       <c r="E71" s="53"/>
       <c r="F71" s="48"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="100"/>
-      <c r="I71" s="99"/>
-      <c r="J71" s="100"/>
-      <c r="K71" s="100"/>
-      <c r="L71" s="100"/>
-      <c r="M71" s="100"/>
-      <c r="N71" s="100"/>
+      <c r="G71" s="54">
+        <v>120</v>
+      </c>
+      <c r="H71" s="100">
+        <v>5</v>
+      </c>
+      <c r="I71" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="J71" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="K71" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="L71" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="M71" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="N71" s="100" t="s">
+        <v>20</v>
+      </c>
       <c r="O71" s="100"/>
       <c r="P71" s="100"/>
       <c r="Q71" s="100"/>
@@ -4368,47 +4432,21 @@
       <c r="AN71" s="100"/>
     </row>
     <row r="72" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C72" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="D72" s="109">
-        <v>126</v>
-      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="67"/>
       <c r="E72" s="53"/>
       <c r="F72" s="48"/>
-      <c r="G72" s="54">
-        <v>203</v>
-      </c>
-      <c r="H72" s="70">
-        <v>7</v>
-      </c>
-      <c r="I72" s="71" t="s">
-        <v>205</v>
-      </c>
-      <c r="J72" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="K72" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="L72" s="70">
-        <v>126</v>
-      </c>
-      <c r="M72" s="70" t="s">
-        <v>208</v>
-      </c>
-      <c r="N72" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="O72" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="P72" s="70" t="s">
-        <v>20</v>
-      </c>
+      <c r="G72" s="54"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="70"/>
+      <c r="K72" s="70"/>
+      <c r="L72" s="70"/>
+      <c r="M72" s="70"/>
+      <c r="N72" s="70"/>
+      <c r="O72" s="70"/>
+      <c r="P72" s="70"/>
       <c r="Q72" s="70"/>
       <c r="R72" s="91"/>
       <c r="S72" s="91"/>
@@ -4435,110 +4473,84 @@
       <c r="AN72" s="91"/>
     </row>
     <row r="73" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="11"/>
+      <c r="B73" s="11" t="s">
+        <v>219</v>
+      </c>
       <c r="C73" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="D73" s="109">
-        <v>123</v>
+        <v>172</v>
+      </c>
+      <c r="D73" s="67" t="s">
+        <v>12</v>
       </c>
       <c r="E73" s="53"/>
       <c r="F73" s="48"/>
       <c r="G73" s="54">
-        <v>203</v>
-      </c>
-      <c r="H73" s="100">
-        <v>7</v>
-      </c>
-      <c r="I73" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="J73" s="100" t="s">
-        <v>206</v>
-      </c>
-      <c r="K73" s="100" t="s">
-        <v>207</v>
-      </c>
-      <c r="L73" s="100">
-        <v>123</v>
-      </c>
-      <c r="M73" s="100" t="s">
-        <v>208</v>
-      </c>
-      <c r="N73" s="100" t="s">
-        <v>209</v>
-      </c>
-      <c r="O73" s="100" t="s">
-        <v>210</v>
-      </c>
-      <c r="P73" s="100" t="s">
+        <v>201</v>
+      </c>
+      <c r="H73" s="70">
+        <v>5</v>
+      </c>
+      <c r="I73" s="71">
+        <v>201</v>
+      </c>
+      <c r="J73" s="70">
+        <v>201</v>
+      </c>
+      <c r="K73" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="L73" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="M73" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="N73" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="Q73" s="100"/>
-      <c r="R73" s="100"/>
-      <c r="S73" s="100"/>
-      <c r="T73" s="100"/>
-      <c r="U73" s="100"/>
-      <c r="V73" s="100"/>
-      <c r="W73" s="100"/>
-      <c r="X73" s="100"/>
-      <c r="Y73" s="100"/>
-      <c r="Z73" s="100"/>
-      <c r="AA73" s="100"/>
-      <c r="AB73" s="100"/>
-      <c r="AC73" s="100"/>
-      <c r="AD73" s="100"/>
-      <c r="AE73" s="100"/>
-      <c r="AF73" s="100"/>
-      <c r="AG73" s="100"/>
-      <c r="AH73" s="100"/>
-      <c r="AI73" s="100"/>
-      <c r="AJ73" s="100"/>
-      <c r="AK73" s="100"/>
-      <c r="AL73" s="100"/>
-      <c r="AM73" s="100"/>
-      <c r="AN73" s="100"/>
+      <c r="O73" s="70"/>
+      <c r="P73" s="70"/>
+      <c r="Q73" s="70"/>
+      <c r="R73" s="91"/>
+      <c r="S73" s="91"/>
+      <c r="T73" s="91"/>
+      <c r="U73" s="91"/>
+      <c r="V73" s="91"/>
+      <c r="W73" s="91"/>
+      <c r="X73" s="91"/>
+      <c r="Y73" s="91"/>
+      <c r="Z73" s="91"/>
+      <c r="AA73" s="91"/>
+      <c r="AB73" s="91"/>
+      <c r="AC73" s="91"/>
+      <c r="AD73" s="91"/>
+      <c r="AE73" s="91"/>
+      <c r="AF73" s="91"/>
+      <c r="AG73" s="91"/>
+      <c r="AH73" s="91"/>
+      <c r="AI73" s="91"/>
+      <c r="AJ73" s="91"/>
+      <c r="AK73" s="91"/>
+      <c r="AL73" s="91"/>
+      <c r="AM73" s="91"/>
+      <c r="AN73" s="91"/>
     </row>
     <row r="74" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="11"/>
-      <c r="C74" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="D74" s="109">
-        <v>121</v>
-      </c>
+      <c r="C74" s="58"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="53"/>
       <c r="F74" s="48"/>
-      <c r="G74" s="54">
-        <v>203</v>
-      </c>
-      <c r="H74" s="100">
-        <v>7</v>
-      </c>
-      <c r="I74" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="J74" s="100" t="s">
-        <v>206</v>
-      </c>
-      <c r="K74" s="100" t="s">
-        <v>207</v>
-      </c>
-      <c r="L74" s="100">
-        <v>121</v>
-      </c>
-      <c r="M74" s="100" t="s">
-        <v>208</v>
-      </c>
-      <c r="N74" s="100" t="s">
-        <v>209</v>
-      </c>
-      <c r="O74" s="100" t="s">
-        <v>210</v>
-      </c>
-      <c r="P74" s="100" t="s">
-        <v>20</v>
-      </c>
+      <c r="G74" s="54"/>
+      <c r="H74" s="100"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="100"/>
+      <c r="K74" s="100"/>
+      <c r="L74" s="100"/>
+      <c r="M74" s="100"/>
+      <c r="N74" s="100"/>
+      <c r="O74" s="100"/>
+      <c r="P74" s="100"/>
       <c r="Q74" s="100"/>
       <c r="R74" s="100"/>
       <c r="S74" s="100"/>
@@ -4564,75 +4576,69 @@
       <c r="AM74" s="100"/>
       <c r="AN74" s="100"/>
     </row>
-    <row r="75" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="11"/>
-      <c r="C75" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="D75" s="109">
-        <v>120</v>
+    <row r="75" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="D75" s="67" t="s">
+        <v>12</v>
       </c>
       <c r="E75" s="53"/>
       <c r="F75" s="48"/>
       <c r="G75" s="54">
-        <v>203</v>
-      </c>
-      <c r="H75" s="100">
-        <v>7</v>
-      </c>
-      <c r="I75" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="J75" s="100" t="s">
-        <v>206</v>
-      </c>
-      <c r="K75" s="100" t="s">
-        <v>207</v>
-      </c>
-      <c r="L75" s="100">
-        <v>120</v>
-      </c>
-      <c r="M75" s="100" t="s">
-        <v>208</v>
-      </c>
-      <c r="N75" s="100" t="s">
-        <v>209</v>
-      </c>
-      <c r="O75" s="100" t="s">
-        <v>210</v>
-      </c>
-      <c r="P75" s="100" t="s">
+        <v>202</v>
+      </c>
+      <c r="H75" s="70">
+        <v>3</v>
+      </c>
+      <c r="I75" s="71">
+        <v>202</v>
+      </c>
+      <c r="J75" s="70">
+        <v>202</v>
+      </c>
+      <c r="K75" s="70">
+        <v>5</v>
+      </c>
+      <c r="L75" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="Q75" s="100"/>
-      <c r="R75" s="100"/>
-      <c r="S75" s="100"/>
-      <c r="T75" s="100"/>
-      <c r="U75" s="100"/>
-      <c r="V75" s="100"/>
-      <c r="W75" s="100"/>
-      <c r="X75" s="100"/>
-      <c r="Y75" s="100"/>
-      <c r="Z75" s="100"/>
-      <c r="AA75" s="100"/>
-      <c r="AB75" s="100"/>
-      <c r="AC75" s="100"/>
-      <c r="AD75" s="100"/>
-      <c r="AE75" s="100"/>
-      <c r="AF75" s="100"/>
-      <c r="AG75" s="100"/>
-      <c r="AH75" s="100"/>
-      <c r="AI75" s="100"/>
-      <c r="AJ75" s="100"/>
-      <c r="AK75" s="100"/>
-      <c r="AL75" s="100"/>
-      <c r="AM75" s="100"/>
-      <c r="AN75" s="100"/>
-    </row>
-    <row r="76" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M75" s="70"/>
+      <c r="N75" s="70"/>
+      <c r="O75" s="70"/>
+      <c r="P75" s="70"/>
+      <c r="Q75" s="70"/>
+      <c r="R75" s="91"/>
+      <c r="S75" s="91"/>
+      <c r="T75" s="91"/>
+      <c r="U75" s="91"/>
+      <c r="V75" s="91"/>
+      <c r="W75" s="91"/>
+      <c r="X75" s="91"/>
+      <c r="Y75" s="91"/>
+      <c r="Z75" s="91"/>
+      <c r="AA75" s="91"/>
+      <c r="AB75" s="91"/>
+      <c r="AC75" s="91"/>
+      <c r="AD75" s="91"/>
+      <c r="AE75" s="91"/>
+      <c r="AF75" s="91"/>
+      <c r="AG75" s="91"/>
+      <c r="AH75" s="91"/>
+      <c r="AI75" s="91"/>
+      <c r="AJ75" s="91"/>
+      <c r="AK75" s="91"/>
+      <c r="AL75" s="91"/>
+      <c r="AM75" s="91"/>
+      <c r="AN75" s="91"/>
+    </row>
+    <row r="76" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="11"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="109"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="67"/>
       <c r="E76" s="53"/>
       <c r="F76" s="48"/>
       <c r="G76" s="54"/>
@@ -4670,129 +4676,432 @@
       <c r="AM76" s="100"/>
       <c r="AN76" s="100"/>
     </row>
-    <row r="77" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="78" t="s">
+    <row r="77" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" s="104">
+        <v>126</v>
+      </c>
+      <c r="E77" s="53"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="54">
+        <v>203</v>
+      </c>
+      <c r="H77" s="70">
+        <v>7</v>
+      </c>
+      <c r="I77" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="J77" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="K77" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="L77" s="70">
+        <v>126</v>
+      </c>
+      <c r="M77" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="N77" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="O77" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="P77" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="70"/>
+      <c r="R77" s="91"/>
+      <c r="S77" s="91"/>
+      <c r="T77" s="91"/>
+      <c r="U77" s="91"/>
+      <c r="V77" s="91"/>
+      <c r="W77" s="91"/>
+      <c r="X77" s="91"/>
+      <c r="Y77" s="91"/>
+      <c r="Z77" s="91"/>
+      <c r="AA77" s="91"/>
+      <c r="AB77" s="91"/>
+      <c r="AC77" s="91"/>
+      <c r="AD77" s="91"/>
+      <c r="AE77" s="91"/>
+      <c r="AF77" s="91"/>
+      <c r="AG77" s="91"/>
+      <c r="AH77" s="91"/>
+      <c r="AI77" s="91"/>
+      <c r="AJ77" s="91"/>
+      <c r="AK77" s="91"/>
+      <c r="AL77" s="91"/>
+      <c r="AM77" s="91"/>
+      <c r="AN77" s="91"/>
+    </row>
+    <row r="78" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="11"/>
+      <c r="C78" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="104">
+        <v>123</v>
+      </c>
+      <c r="E78" s="53"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="54">
+        <v>203</v>
+      </c>
+      <c r="H78" s="100">
+        <v>7</v>
+      </c>
+      <c r="I78" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="J78" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="K78" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="L78" s="100">
+        <v>123</v>
+      </c>
+      <c r="M78" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="N78" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="O78" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="P78" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="100"/>
+      <c r="R78" s="100"/>
+      <c r="S78" s="100"/>
+      <c r="T78" s="100"/>
+      <c r="U78" s="100"/>
+      <c r="V78" s="100"/>
+      <c r="W78" s="100"/>
+      <c r="X78" s="100"/>
+      <c r="Y78" s="100"/>
+      <c r="Z78" s="100"/>
+      <c r="AA78" s="100"/>
+      <c r="AB78" s="100"/>
+      <c r="AC78" s="100"/>
+      <c r="AD78" s="100"/>
+      <c r="AE78" s="100"/>
+      <c r="AF78" s="100"/>
+      <c r="AG78" s="100"/>
+      <c r="AH78" s="100"/>
+      <c r="AI78" s="100"/>
+      <c r="AJ78" s="100"/>
+      <c r="AK78" s="100"/>
+      <c r="AL78" s="100"/>
+      <c r="AM78" s="100"/>
+      <c r="AN78" s="100"/>
+    </row>
+    <row r="79" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="11"/>
+      <c r="C79" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="104">
+        <v>121</v>
+      </c>
+      <c r="E79" s="53"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="54">
+        <v>203</v>
+      </c>
+      <c r="H79" s="100">
+        <v>7</v>
+      </c>
+      <c r="I79" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="J79" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="K79" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="L79" s="100">
+        <v>121</v>
+      </c>
+      <c r="M79" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="N79" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="O79" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="P79" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="100"/>
+      <c r="R79" s="100"/>
+      <c r="S79" s="100"/>
+      <c r="T79" s="100"/>
+      <c r="U79" s="100"/>
+      <c r="V79" s="100"/>
+      <c r="W79" s="100"/>
+      <c r="X79" s="100"/>
+      <c r="Y79" s="100"/>
+      <c r="Z79" s="100"/>
+      <c r="AA79" s="100"/>
+      <c r="AB79" s="100"/>
+      <c r="AC79" s="100"/>
+      <c r="AD79" s="100"/>
+      <c r="AE79" s="100"/>
+      <c r="AF79" s="100"/>
+      <c r="AG79" s="100"/>
+      <c r="AH79" s="100"/>
+      <c r="AI79" s="100"/>
+      <c r="AJ79" s="100"/>
+      <c r="AK79" s="100"/>
+      <c r="AL79" s="100"/>
+      <c r="AM79" s="100"/>
+      <c r="AN79" s="100"/>
+    </row>
+    <row r="80" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="11"/>
+      <c r="C80" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" s="104">
+        <v>120</v>
+      </c>
+      <c r="E80" s="53"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="54">
+        <v>203</v>
+      </c>
+      <c r="H80" s="100">
+        <v>7</v>
+      </c>
+      <c r="I80" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="J80" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="K80" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="L80" s="100">
+        <v>120</v>
+      </c>
+      <c r="M80" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="N80" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="O80" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="P80" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="100"/>
+      <c r="R80" s="100"/>
+      <c r="S80" s="100"/>
+      <c r="T80" s="100"/>
+      <c r="U80" s="100"/>
+      <c r="V80" s="100"/>
+      <c r="W80" s="100"/>
+      <c r="X80" s="100"/>
+      <c r="Y80" s="100"/>
+      <c r="Z80" s="100"/>
+      <c r="AA80" s="100"/>
+      <c r="AB80" s="100"/>
+      <c r="AC80" s="100"/>
+      <c r="AD80" s="100"/>
+      <c r="AE80" s="100"/>
+      <c r="AF80" s="100"/>
+      <c r="AG80" s="100"/>
+      <c r="AH80" s="100"/>
+      <c r="AI80" s="100"/>
+      <c r="AJ80" s="100"/>
+      <c r="AK80" s="100"/>
+      <c r="AL80" s="100"/>
+      <c r="AM80" s="100"/>
+      <c r="AN80" s="100"/>
+    </row>
+    <row r="81" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="11"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="104"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="100"/>
+      <c r="I81" s="99"/>
+      <c r="J81" s="100"/>
+      <c r="K81" s="100"/>
+      <c r="L81" s="100"/>
+      <c r="M81" s="100"/>
+      <c r="N81" s="100"/>
+      <c r="O81" s="100"/>
+      <c r="P81" s="100"/>
+      <c r="Q81" s="100"/>
+      <c r="R81" s="100"/>
+      <c r="S81" s="100"/>
+      <c r="T81" s="100"/>
+      <c r="U81" s="100"/>
+      <c r="V81" s="100"/>
+      <c r="W81" s="100"/>
+      <c r="X81" s="100"/>
+      <c r="Y81" s="100"/>
+      <c r="Z81" s="100"/>
+      <c r="AA81" s="100"/>
+      <c r="AB81" s="100"/>
+      <c r="AC81" s="100"/>
+      <c r="AD81" s="100"/>
+      <c r="AE81" s="100"/>
+      <c r="AF81" s="100"/>
+      <c r="AG81" s="100"/>
+      <c r="AH81" s="100"/>
+      <c r="AI81" s="100"/>
+      <c r="AJ81" s="100"/>
+      <c r="AK81" s="100"/>
+      <c r="AL81" s="100"/>
+      <c r="AM81" s="100"/>
+      <c r="AN81" s="100"/>
+    </row>
+    <row r="82" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="D78" s="74" t="s">
+      <c r="D83" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="E78" s="75"/>
-      <c r="F78" s="76" t="s">
+      <c r="E83" s="75"/>
+      <c r="F83" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="G78" s="77"/>
-    </row>
-    <row r="79" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B79" s="73" t="s">
+      <c r="G83" s="77"/>
+    </row>
+    <row r="84" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B84" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="C79" s="72" t="s">
+      <c r="C84" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="D79" s="67">
+      <c r="D84" s="67">
         <v>254</v>
       </c>
-      <c r="E79" s="47" t="s">
+      <c r="E84" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="48">
+      <c r="F84" s="48">
         <v>253</v>
       </c>
-      <c r="G79" s="49" t="s">
+      <c r="G84" s="49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B80" s="73"/>
-      <c r="C80" s="72"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="21"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="21"/>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B81" s="73" t="s">
+    <row r="85" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B85" s="73"/>
+      <c r="C85" s="72"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+    </row>
+    <row r="86" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B86" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="72" t="s">
+      <c r="C86" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="D81" s="67">
+      <c r="D86" s="67">
         <v>239</v>
       </c>
-      <c r="E81" s="47" t="s">
+      <c r="E86" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="F81" s="48">
+      <c r="F86" s="48">
         <v>237</v>
       </c>
-      <c r="G81" s="49" t="s">
+      <c r="G86" s="49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B82" s="73"/>
-      <c r="C82" s="72"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B83" s="73" t="s">
+    <row r="87" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B87" s="73"/>
+      <c r="C87" s="72"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+    </row>
+    <row r="88" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B88" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C83" s="72" t="s">
+      <c r="C88" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="F83" s="48">
+      <c r="F88" s="48">
         <v>211</v>
       </c>
-      <c r="G83" s="49" t="s">
+      <c r="G88" s="49" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B84" s="73"/>
-      <c r="C84" s="72"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B85" s="73" t="s">
+    <row r="89" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B89" s="73"/>
+      <c r="C89" s="72"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+    </row>
+    <row r="90" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B90" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="C85" s="72" t="s">
+      <c r="C90" s="72" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N5:O5"/>

--- a/Support/PGN 5.6.xlsx
+++ b/Support/PGN 5.6.xlsx
@@ -10,7 +10,7 @@
     <sheet name="PGN" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PGN!$A$1:$Q$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PGN!$A$1:$Q$99</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="244">
   <si>
     <t>Src</t>
   </si>
@@ -748,6 +748,18 @@
   </si>
   <si>
     <t>Rspeed</t>
+  </si>
+  <si>
+    <t>GPS/IMU/WAS</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>192.168.5.122</t>
+  </si>
+  <si>
+    <t>Port 5122</t>
   </si>
 </sst>
 </file>
@@ -840,7 +852,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1093,13 +1105,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1417,6 +1438,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
@@ -1435,6 +1465,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1743,7 +1774,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1754,11 +1785,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AP90"/>
+  <dimension ref="B1:AP98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1917,17 +1948,17 @@
       <c r="H3" s="20">
         <v>8</v>
       </c>
-      <c r="I3" s="111" t="s">
+      <c r="I3" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="112"/>
+      <c r="J3" s="115"/>
       <c r="K3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="113" t="s">
+      <c r="L3" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="114"/>
+      <c r="M3" s="117"/>
       <c r="N3" s="1" t="s">
         <v>195</v>
       </c>
@@ -1981,10 +2012,10 @@
       <c r="M5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="115" t="s">
+      <c r="N5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="115"/>
+      <c r="O5" s="118"/>
       <c r="P5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2073,18 +2104,18 @@
       <c r="H9" s="20">
         <v>8</v>
       </c>
-      <c r="I9" s="116" t="s">
+      <c r="I9" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="115" t="s">
+      <c r="J9" s="113"/>
+      <c r="K9" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115" t="s">
+      <c r="L9" s="118"/>
+      <c r="M9" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="115"/>
+      <c r="N9" s="118"/>
       <c r="O9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2178,33 +2209,9 @@
       <c r="AN12" s="103"/>
     </row>
     <row r="13" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="67">
-        <v>79</v>
-      </c>
-      <c r="E13" s="47">
-        <v>121</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="G13" s="49">
-        <v>249</v>
-      </c>
-      <c r="H13" s="102">
-        <v>8</v>
-      </c>
-      <c r="I13" s="101" t="s">
-        <v>226</v>
-      </c>
-      <c r="J13" s="103" t="s">
-        <v>227</v>
-      </c>
+      <c r="H13" s="102"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="103"/>
       <c r="K13" s="103"/>
       <c r="L13" s="103"/>
       <c r="M13" s="103"/>
@@ -2908,18 +2915,18 @@
       <c r="H30" s="20">
         <v>8</v>
       </c>
-      <c r="I30" s="109" t="s">
+      <c r="I30" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110" t="s">
+      <c r="J30" s="113"/>
+      <c r="K30" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110" t="s">
+      <c r="L30" s="113"/>
+      <c r="M30" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="N30" s="110"/>
+      <c r="N30" s="113"/>
       <c r="O30" s="20">
         <v>0</v>
       </c>
@@ -3438,547 +3445,591 @@
       <c r="B47" s="11" t="s">
         <v>141</v>
       </c>
+      <c r="K47" s="1" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="48" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="11"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="91"/>
-      <c r="S49" s="91"/>
-      <c r="T49" s="91"/>
-      <c r="U49" s="91"/>
-      <c r="V49" s="91"/>
-      <c r="W49" s="91"/>
-      <c r="X49" s="91"/>
-      <c r="Y49" s="91"/>
-      <c r="Z49" s="91"/>
-      <c r="AA49" s="91"/>
-      <c r="AB49" s="91"/>
-      <c r="AC49" s="91"/>
-      <c r="AD49" s="91"/>
-      <c r="AE49" s="91"/>
-      <c r="AF49" s="91"/>
-      <c r="AG49" s="91"/>
-      <c r="AH49" s="91"/>
-      <c r="AI49" s="91"/>
-      <c r="AJ49" s="91"/>
-      <c r="AK49" s="91"/>
-      <c r="AL49" s="91"/>
-      <c r="AM49" s="91"/>
-      <c r="AN49" s="91"/>
-    </row>
-    <row r="50" spans="2:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="55"/>
-      <c r="F50" s="56" t="s">
+      <c r="H49" s="110"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="111"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="111"/>
+      <c r="S49" s="111"/>
+      <c r="T49" s="111"/>
+      <c r="U49" s="111"/>
+      <c r="V49" s="111"/>
+      <c r="W49" s="111"/>
+      <c r="X49" s="111"/>
+      <c r="Y49" s="111"/>
+      <c r="Z49" s="111"/>
+      <c r="AA49" s="111"/>
+      <c r="AB49" s="111"/>
+      <c r="AC49" s="111"/>
+      <c r="AD49" s="111"/>
+      <c r="AE49" s="111"/>
+      <c r="AF49" s="111"/>
+      <c r="AG49" s="111"/>
+      <c r="AH49" s="111"/>
+      <c r="AI49" s="111"/>
+      <c r="AJ49" s="111"/>
+      <c r="AK49" s="111"/>
+      <c r="AL49" s="111"/>
+      <c r="AM49" s="111"/>
+      <c r="AN49" s="111"/>
+    </row>
+    <row r="50" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="11"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="111"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="111"/>
+      <c r="W50" s="111"/>
+      <c r="X50" s="111"/>
+      <c r="Y50" s="111"/>
+      <c r="Z50" s="111"/>
+      <c r="AA50" s="111"/>
+      <c r="AB50" s="111"/>
+      <c r="AC50" s="111"/>
+      <c r="AD50" s="111"/>
+      <c r="AE50" s="111"/>
+      <c r="AF50" s="111"/>
+      <c r="AG50" s="111"/>
+      <c r="AH50" s="111"/>
+      <c r="AI50" s="111"/>
+      <c r="AJ50" s="111"/>
+      <c r="AK50" s="111"/>
+      <c r="AL50" s="111"/>
+      <c r="AM50" s="111"/>
+      <c r="AN50" s="111"/>
+    </row>
+    <row r="51" spans="2:40" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="60"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+      <c r="AF51" s="25"/>
+      <c r="AG51" s="25"/>
+      <c r="AH51" s="25"/>
+      <c r="AI51" s="25"/>
+      <c r="AJ51" s="25"/>
+      <c r="AK51" s="25"/>
+      <c r="AL51" s="25"/>
+      <c r="AM51" s="25"/>
+      <c r="AN51" s="25"/>
+    </row>
+    <row r="52" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="120"/>
+      <c r="C52" s="3"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="111"/>
+      <c r="M52" s="111"/>
+      <c r="N52" s="111"/>
+      <c r="O52" s="111"/>
+      <c r="P52" s="111"/>
+      <c r="Q52" s="111"/>
+      <c r="R52" s="111"/>
+      <c r="S52" s="111"/>
+      <c r="T52" s="111"/>
+      <c r="U52" s="111"/>
+      <c r="V52" s="111"/>
+      <c r="W52" s="111"/>
+      <c r="X52" s="111"/>
+      <c r="Y52" s="111"/>
+      <c r="Z52" s="111"/>
+      <c r="AA52" s="111"/>
+      <c r="AB52" s="111"/>
+      <c r="AC52" s="111"/>
+      <c r="AD52" s="111"/>
+      <c r="AE52" s="111"/>
+      <c r="AF52" s="111"/>
+      <c r="AG52" s="111"/>
+      <c r="AH52" s="111"/>
+      <c r="AI52" s="111"/>
+      <c r="AJ52" s="111"/>
+      <c r="AK52" s="111"/>
+      <c r="AL52" s="111"/>
+      <c r="AM52" s="111"/>
+      <c r="AN52" s="111"/>
+    </row>
+    <row r="53" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" s="67">
         <v>79</v>
       </c>
-      <c r="G50" s="57">
-        <v>233</v>
-      </c>
-      <c r="H50" s="25">
+      <c r="E53" s="47">
+        <v>122</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G53" s="49">
+        <v>249</v>
+      </c>
+      <c r="H53" s="110">
         <v>8</v>
       </c>
-      <c r="I50" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K50" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L50" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="M50" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="N50" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="O50" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="P50" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q50" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="25"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="25"/>
-      <c r="V50" s="25"/>
-      <c r="W50" s="25"/>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="25"/>
-      <c r="Z50" s="25"/>
-      <c r="AA50" s="25"/>
-      <c r="AB50" s="25"/>
-      <c r="AC50" s="25"/>
-      <c r="AD50" s="25"/>
-      <c r="AE50" s="25"/>
-      <c r="AF50" s="25"/>
-      <c r="AG50" s="25"/>
-      <c r="AH50" s="25"/>
-      <c r="AI50" s="25"/>
-      <c r="AJ50" s="25"/>
-      <c r="AK50" s="25"/>
-      <c r="AL50" s="25"/>
-      <c r="AM50" s="25"/>
-      <c r="AN50" s="25"/>
-    </row>
-    <row r="51" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="3"/>
-      <c r="C51" s="29"/>
-    </row>
-    <row r="52" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" s="49">
-        <v>232</v>
-      </c>
-      <c r="H52" s="20">
-        <v>8</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="11" t="s">
-        <v>162</v>
-      </c>
+      <c r="I53" s="109" t="s">
+        <v>226</v>
+      </c>
+      <c r="J53" s="111" t="s">
+        <v>227</v>
+      </c>
+      <c r="K53" s="111"/>
+      <c r="L53" s="111"/>
+      <c r="M53" s="111"/>
+      <c r="N53" s="111"/>
+      <c r="O53" s="111"/>
+      <c r="P53" s="111"/>
+      <c r="Q53" s="111"/>
+      <c r="R53" s="111"/>
+      <c r="S53" s="111"/>
+      <c r="T53" s="111"/>
+      <c r="U53" s="111"/>
+      <c r="V53" s="111"/>
+      <c r="W53" s="111"/>
+      <c r="X53" s="111"/>
+      <c r="Y53" s="111"/>
+      <c r="Z53" s="111"/>
+      <c r="AA53" s="111"/>
+      <c r="AB53" s="111"/>
+      <c r="AC53" s="111"/>
+      <c r="AD53" s="111"/>
+      <c r="AE53" s="111"/>
+      <c r="AF53" s="111"/>
+      <c r="AG53" s="111"/>
+      <c r="AH53" s="111"/>
+      <c r="AI53" s="111"/>
+      <c r="AJ53" s="111"/>
+      <c r="AK53" s="111"/>
+      <c r="AL53" s="111"/>
+      <c r="AM53" s="111"/>
+      <c r="AN53" s="111"/>
     </row>
     <row r="54" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="H54" s="110"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="111"/>
+      <c r="K54" s="111"/>
+      <c r="L54" s="111"/>
+      <c r="M54" s="111"/>
+      <c r="N54" s="111"/>
+      <c r="O54" s="111"/>
+      <c r="P54" s="111"/>
+      <c r="Q54" s="111"/>
+      <c r="R54" s="111"/>
+      <c r="S54" s="111"/>
+      <c r="T54" s="111"/>
+      <c r="U54" s="111"/>
+      <c r="V54" s="111"/>
+      <c r="W54" s="111"/>
+      <c r="X54" s="111"/>
+      <c r="Y54" s="111"/>
+      <c r="Z54" s="111"/>
+      <c r="AA54" s="111"/>
+      <c r="AB54" s="111"/>
+      <c r="AC54" s="111"/>
+      <c r="AD54" s="111"/>
+      <c r="AE54" s="111"/>
+      <c r="AF54" s="111"/>
+      <c r="AG54" s="111"/>
+      <c r="AH54" s="111"/>
+      <c r="AI54" s="111"/>
+      <c r="AJ54" s="111"/>
+      <c r="AK54" s="111"/>
+      <c r="AL54" s="111"/>
+      <c r="AM54" s="111"/>
+      <c r="AN54" s="111"/>
+    </row>
+    <row r="55" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H55" s="110"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="111"/>
+      <c r="K55" s="111"/>
+      <c r="L55" s="111"/>
+      <c r="M55" s="111"/>
+      <c r="N55" s="111"/>
+      <c r="O55" s="111"/>
+      <c r="P55" s="111"/>
+      <c r="Q55" s="111"/>
+      <c r="R55" s="111"/>
+      <c r="S55" s="111"/>
+      <c r="T55" s="111"/>
+      <c r="U55" s="111"/>
+      <c r="V55" s="111"/>
+      <c r="W55" s="111"/>
+      <c r="X55" s="111"/>
+      <c r="Y55" s="111"/>
+      <c r="Z55" s="111"/>
+      <c r="AA55" s="111"/>
+      <c r="AB55" s="111"/>
+      <c r="AC55" s="111"/>
+      <c r="AD55" s="111"/>
+      <c r="AE55" s="111"/>
+      <c r="AF55" s="111"/>
+      <c r="AG55" s="111"/>
+      <c r="AH55" s="111"/>
+      <c r="AI55" s="111"/>
+      <c r="AJ55" s="111"/>
+      <c r="AK55" s="111"/>
+      <c r="AL55" s="111"/>
+      <c r="AM55" s="111"/>
+      <c r="AN55" s="111"/>
+    </row>
+    <row r="56" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H56" s="110"/>
+      <c r="I56" s="109"/>
+      <c r="J56" s="111"/>
+      <c r="K56" s="111"/>
+      <c r="L56" s="111"/>
+      <c r="M56" s="111"/>
+      <c r="N56" s="111"/>
+      <c r="O56" s="111"/>
+      <c r="P56" s="111"/>
+      <c r="Q56" s="111"/>
+      <c r="R56" s="111"/>
+      <c r="S56" s="111"/>
+      <c r="T56" s="111"/>
+      <c r="U56" s="111"/>
+      <c r="V56" s="111"/>
+      <c r="W56" s="111"/>
+      <c r="X56" s="111"/>
+      <c r="Y56" s="111"/>
+      <c r="Z56" s="111"/>
+      <c r="AA56" s="111"/>
+      <c r="AB56" s="111"/>
+      <c r="AC56" s="111"/>
+      <c r="AD56" s="111"/>
+      <c r="AE56" s="111"/>
+      <c r="AF56" s="111"/>
+      <c r="AG56" s="111"/>
+      <c r="AH56" s="111"/>
+      <c r="AI56" s="111"/>
+      <c r="AJ56" s="111"/>
+      <c r="AK56" s="111"/>
+      <c r="AL56" s="111"/>
+      <c r="AM56" s="111"/>
+      <c r="AN56" s="111"/>
+    </row>
+    <row r="57" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="11"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="91"/>
+      <c r="S57" s="91"/>
+      <c r="T57" s="91"/>
+      <c r="U57" s="91"/>
+      <c r="V57" s="91"/>
+      <c r="W57" s="91"/>
+      <c r="X57" s="91"/>
+      <c r="Y57" s="91"/>
+      <c r="Z57" s="91"/>
+      <c r="AA57" s="91"/>
+      <c r="AB57" s="91"/>
+      <c r="AC57" s="91"/>
+      <c r="AD57" s="91"/>
+      <c r="AE57" s="91"/>
+      <c r="AF57" s="91"/>
+      <c r="AG57" s="91"/>
+      <c r="AH57" s="91"/>
+      <c r="AI57" s="91"/>
+      <c r="AJ57" s="91"/>
+      <c r="AK57" s="91"/>
+      <c r="AL57" s="91"/>
+      <c r="AM57" s="91"/>
+      <c r="AN57" s="91"/>
+    </row>
+    <row r="58" spans="2:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="55"/>
+      <c r="F58" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="57">
+        <v>233</v>
+      </c>
+      <c r="H58" s="25">
+        <v>8</v>
+      </c>
+      <c r="I58" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K58" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L58" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="M58" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N58" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="O58" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P58" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q58" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="25"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+      <c r="AA58" s="25"/>
+      <c r="AB58" s="25"/>
+      <c r="AC58" s="25"/>
+      <c r="AD58" s="25"/>
+      <c r="AE58" s="25"/>
+      <c r="AF58" s="25"/>
+      <c r="AG58" s="25"/>
+      <c r="AH58" s="25"/>
+      <c r="AI58" s="25"/>
+      <c r="AJ58" s="25"/>
+      <c r="AK58" s="25"/>
+      <c r="AL58" s="25"/>
+      <c r="AM58" s="25"/>
+      <c r="AN58" s="25"/>
+    </row>
+    <row r="59" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="3"/>
+      <c r="C59" s="29"/>
+    </row>
+    <row r="60" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" s="49">
+        <v>232</v>
+      </c>
+      <c r="H60" s="20">
+        <v>8</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C62" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="67" t="s">
+      <c r="D62" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="48" t="s">
+      <c r="F62" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G54" s="49">
+      <c r="G62" s="49">
         <v>231</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H62" s="20">
         <v>8</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="O62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="P62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="Q62" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="11" t="s">
+    <row r="63" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="91"/>
-      <c r="S55" s="91"/>
-      <c r="T55" s="91"/>
-      <c r="U55" s="91"/>
-      <c r="V55" s="91"/>
-      <c r="W55" s="91"/>
-      <c r="X55" s="91"/>
-      <c r="Y55" s="91"/>
-      <c r="Z55" s="91"/>
-      <c r="AA55" s="91"/>
-      <c r="AB55" s="91"/>
-      <c r="AC55" s="91"/>
-      <c r="AD55" s="91"/>
-      <c r="AE55" s="91"/>
-      <c r="AF55" s="91"/>
-      <c r="AG55" s="91"/>
-      <c r="AH55" s="91"/>
-      <c r="AI55" s="91"/>
-      <c r="AJ55" s="91"/>
-      <c r="AK55" s="91"/>
-      <c r="AL55" s="91"/>
-      <c r="AM55" s="91"/>
-      <c r="AN55" s="91"/>
-    </row>
-    <row r="56" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="11"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K56" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="L56" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="M56" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="N56" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="O56" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="91"/>
-      <c r="S56" s="91"/>
-      <c r="T56" s="91"/>
-      <c r="U56" s="91"/>
-      <c r="V56" s="91"/>
-      <c r="W56" s="91"/>
-      <c r="X56" s="91"/>
-      <c r="Y56" s="91"/>
-      <c r="Z56" s="91"/>
-      <c r="AA56" s="91"/>
-      <c r="AB56" s="91"/>
-      <c r="AC56" s="91"/>
-      <c r="AD56" s="91"/>
-      <c r="AE56" s="91"/>
-      <c r="AF56" s="91"/>
-      <c r="AG56" s="91"/>
-      <c r="AH56" s="91"/>
-      <c r="AI56" s="91"/>
-      <c r="AJ56" s="91"/>
-      <c r="AK56" s="91"/>
-      <c r="AL56" s="91"/>
-      <c r="AM56" s="91"/>
-      <c r="AN56" s="91"/>
-    </row>
-    <row r="57" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J57" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="K57" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="L57" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="M57" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="N57" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="O57" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-    </row>
-    <row r="59" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" s="47">
-        <v>122</v>
-      </c>
-      <c r="F59" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="G59" s="49">
-        <v>230</v>
-      </c>
-      <c r="H59" s="20">
-        <v>8</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J59" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="K59" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="L59" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="M59" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N59" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="O59" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-    </row>
-    <row r="61" spans="2:40" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="10"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="25"/>
-      <c r="V61" s="25"/>
-      <c r="W61" s="25"/>
-      <c r="X61" s="25"/>
-      <c r="Y61" s="25"/>
-      <c r="Z61" s="25"/>
-      <c r="AA61" s="25"/>
-      <c r="AB61" s="25"/>
-      <c r="AC61" s="25"/>
-      <c r="AD61" s="25"/>
-      <c r="AE61" s="25"/>
-      <c r="AF61" s="25"/>
-      <c r="AG61" s="25"/>
-      <c r="AH61" s="25"/>
-      <c r="AI61" s="25"/>
-      <c r="AJ61" s="25"/>
-      <c r="AK61" s="25"/>
-      <c r="AL61" s="25"/>
-      <c r="AM61" s="25"/>
-      <c r="AN61" s="25"/>
-    </row>
-    <row r="62" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="11"/>
-      <c r="C62" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" s="67">
-        <v>77</v>
-      </c>
-      <c r="E62" s="53">
-        <v>119</v>
-      </c>
-      <c r="F62" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" s="54">
-        <v>234</v>
-      </c>
-      <c r="H62" s="20"/>
-      <c r="I62" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J62" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K62" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L62" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M62" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="N62" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="O62" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="P62" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q62" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R62" s="91"/>
-      <c r="S62" s="91"/>
-      <c r="T62" s="91"/>
-      <c r="U62" s="91"/>
-      <c r="V62" s="91"/>
-      <c r="W62" s="91"/>
-      <c r="X62" s="91"/>
-      <c r="Y62" s="91"/>
-      <c r="Z62" s="91"/>
-      <c r="AA62" s="91"/>
-      <c r="AB62" s="91"/>
-      <c r="AC62" s="91"/>
-      <c r="AD62" s="91"/>
-      <c r="AE62" s="91"/>
-      <c r="AF62" s="91"/>
-      <c r="AG62" s="91"/>
-      <c r="AH62" s="91"/>
-      <c r="AI62" s="91"/>
-      <c r="AJ62" s="91"/>
-      <c r="AK62" s="91"/>
-      <c r="AL62" s="91"/>
-      <c r="AM62" s="91"/>
-      <c r="AN62" s="91"/>
-    </row>
-    <row r="63" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="11"/>
       <c r="C63" s="58"/>
       <c r="D63" s="67"/>
-      <c r="E63" s="53"/>
+      <c r="E63" s="47"/>
       <c r="F63" s="48"/>
-      <c r="G63" s="54"/>
+      <c r="G63" s="49"/>
       <c r="H63" s="20"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
+      <c r="I63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
       <c r="R63" s="91"/>
       <c r="S63" s="91"/>
       <c r="T63" s="91"/>
@@ -4003,511 +4054,348 @@
       <c r="AM63" s="91"/>
       <c r="AN63" s="91"/>
     </row>
-    <row r="64" spans="2:40" s="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="83"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="88"/>
-      <c r="L64" s="88"/>
-      <c r="M64" s="88"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="88"/>
-      <c r="P64" s="88"/>
-      <c r="Q64" s="88"/>
-      <c r="R64" s="88"/>
-      <c r="S64" s="88"/>
-      <c r="T64" s="88"/>
-      <c r="U64" s="88"/>
-      <c r="V64" s="88"/>
-      <c r="W64" s="88"/>
-      <c r="X64" s="88"/>
-      <c r="Y64" s="88"/>
-      <c r="Z64" s="88"/>
-      <c r="AA64" s="88"/>
-      <c r="AB64" s="88"/>
-      <c r="AC64" s="88"/>
-      <c r="AD64" s="88"/>
-      <c r="AE64" s="88"/>
-      <c r="AF64" s="88"/>
-      <c r="AG64" s="88"/>
-      <c r="AH64" s="88"/>
-      <c r="AI64" s="88"/>
-      <c r="AJ64" s="88"/>
-      <c r="AK64" s="88"/>
-      <c r="AL64" s="88"/>
-      <c r="AM64" s="88"/>
-      <c r="AN64" s="88"/>
-    </row>
-    <row r="65" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="11"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
-      <c r="L65" s="70"/>
-      <c r="M65" s="70"/>
-      <c r="N65" s="70"/>
-      <c r="O65" s="70"/>
-      <c r="P65" s="70"/>
-      <c r="Q65" s="70"/>
-      <c r="R65" s="91"/>
-      <c r="S65" s="91"/>
-      <c r="T65" s="91"/>
-      <c r="U65" s="91"/>
-      <c r="V65" s="91"/>
-      <c r="W65" s="91"/>
-      <c r="X65" s="91"/>
-      <c r="Y65" s="91"/>
-      <c r="Z65" s="91"/>
-      <c r="AA65" s="91"/>
-      <c r="AB65" s="91"/>
-      <c r="AC65" s="91"/>
-      <c r="AD65" s="91"/>
-      <c r="AE65" s="91"/>
-      <c r="AF65" s="91"/>
-      <c r="AG65" s="91"/>
-      <c r="AH65" s="91"/>
-      <c r="AI65" s="91"/>
-      <c r="AJ65" s="91"/>
-      <c r="AK65" s="91"/>
-      <c r="AL65" s="91"/>
-      <c r="AM65" s="91"/>
-      <c r="AN65" s="91"/>
-    </row>
-    <row r="66" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C66" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="D66" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="53"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="54">
-        <v>200</v>
-      </c>
-      <c r="H66" s="70">
-        <v>3</v>
-      </c>
-      <c r="I66" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="J66" s="70">
-        <v>0</v>
-      </c>
-      <c r="K66" s="70">
-        <v>0</v>
-      </c>
-      <c r="L66" s="70" t="s">
+    <row r="64" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="11"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K64" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L64" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="M64" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="N64" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="O64" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="91"/>
+      <c r="S64" s="91"/>
+      <c r="T64" s="91"/>
+      <c r="U64" s="91"/>
+      <c r="V64" s="91"/>
+      <c r="W64" s="91"/>
+      <c r="X64" s="91"/>
+      <c r="Y64" s="91"/>
+      <c r="Z64" s="91"/>
+      <c r="AA64" s="91"/>
+      <c r="AB64" s="91"/>
+      <c r="AC64" s="91"/>
+      <c r="AD64" s="91"/>
+      <c r="AE64" s="91"/>
+      <c r="AF64" s="91"/>
+      <c r="AG64" s="91"/>
+      <c r="AH64" s="91"/>
+      <c r="AI64" s="91"/>
+      <c r="AJ64" s="91"/>
+      <c r="AK64" s="91"/>
+      <c r="AL64" s="91"/>
+      <c r="AM64" s="91"/>
+      <c r="AN64" s="91"/>
+    </row>
+    <row r="65" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J65" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K65" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="L65" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="M65" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="N65" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O65" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+    </row>
+    <row r="67" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="47">
+        <v>122</v>
+      </c>
+      <c r="F67" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" s="49">
+        <v>230</v>
+      </c>
+      <c r="H67" s="20">
+        <v>8</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J67" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K67" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="L67" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="M67" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="N67" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O67" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q67" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M66" s="70"/>
-      <c r="N66" s="70"/>
-      <c r="O66" s="70"/>
-      <c r="P66" s="70"/>
-      <c r="Q66" s="70"/>
-      <c r="R66" s="91"/>
-      <c r="S66" s="91"/>
-      <c r="T66" s="91"/>
-      <c r="U66" s="91"/>
-      <c r="V66" s="91"/>
-      <c r="W66" s="91"/>
-      <c r="X66" s="91"/>
-      <c r="Y66" s="91"/>
-      <c r="Z66" s="91"/>
-      <c r="AA66" s="91"/>
-      <c r="AB66" s="91"/>
-      <c r="AC66" s="91"/>
-      <c r="AD66" s="91"/>
-      <c r="AE66" s="91"/>
-      <c r="AF66" s="91"/>
-      <c r="AG66" s="91"/>
-      <c r="AH66" s="91"/>
-      <c r="AI66" s="91"/>
-      <c r="AJ66" s="91"/>
-      <c r="AK66" s="91"/>
-      <c r="AL66" s="91"/>
-      <c r="AM66" s="91"/>
-      <c r="AN66" s="91"/>
-    </row>
-    <row r="67" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="90"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="100"/>
-      <c r="I67" s="99"/>
-      <c r="J67" s="100"/>
-      <c r="K67" s="100"/>
-      <c r="L67" s="100"/>
-      <c r="M67" s="100"/>
-      <c r="N67" s="100"/>
-      <c r="O67" s="100"/>
-      <c r="P67" s="100"/>
-      <c r="Q67" s="100"/>
-      <c r="R67" s="100"/>
-      <c r="S67" s="100"/>
-      <c r="T67" s="100"/>
-      <c r="U67" s="100"/>
-      <c r="V67" s="100"/>
-      <c r="W67" s="100"/>
-      <c r="X67" s="100"/>
-      <c r="Y67" s="100"/>
-      <c r="Z67" s="100"/>
-      <c r="AA67" s="100"/>
-      <c r="AB67" s="100"/>
-      <c r="AC67" s="100"/>
-      <c r="AD67" s="100"/>
-      <c r="AE67" s="100"/>
-      <c r="AF67" s="100"/>
-      <c r="AG67" s="100"/>
-      <c r="AH67" s="100"/>
-      <c r="AI67" s="100"/>
-      <c r="AJ67" s="100"/>
-      <c r="AK67" s="100"/>
-      <c r="AL67" s="100"/>
-      <c r="AM67" s="100"/>
-      <c r="AN67" s="100"/>
-    </row>
-    <row r="68" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C68" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="D68" s="67">
-        <v>126</v>
-      </c>
-      <c r="E68" s="53"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="54">
-        <v>126</v>
-      </c>
-      <c r="H68" s="100">
-        <v>5</v>
-      </c>
-      <c r="I68" s="99" t="s">
-        <v>211</v>
-      </c>
-      <c r="J68" s="100" t="s">
-        <v>212</v>
-      </c>
-      <c r="K68" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="L68" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="M68" s="100" t="s">
-        <v>215</v>
-      </c>
-      <c r="N68" s="100" t="s">
+    </row>
+    <row r="68" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+    </row>
+    <row r="69" spans="2:40" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="10"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="25"/>
+      <c r="AB69" s="25"/>
+      <c r="AC69" s="25"/>
+      <c r="AD69" s="25"/>
+      <c r="AE69" s="25"/>
+      <c r="AF69" s="25"/>
+      <c r="AG69" s="25"/>
+      <c r="AH69" s="25"/>
+      <c r="AI69" s="25"/>
+      <c r="AJ69" s="25"/>
+      <c r="AK69" s="25"/>
+      <c r="AL69" s="25"/>
+      <c r="AM69" s="25"/>
+      <c r="AN69" s="25"/>
+    </row>
+    <row r="70" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="11"/>
+      <c r="C70" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="67">
+        <v>77</v>
+      </c>
+      <c r="E70" s="53">
+        <v>119</v>
+      </c>
+      <c r="F70" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G70" s="54">
+        <v>234</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J70" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K70" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L70" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M70" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N70" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O70" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="P70" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q70" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="100"/>
-      <c r="P68" s="100"/>
-      <c r="Q68" s="100"/>
-      <c r="R68" s="100"/>
-      <c r="S68" s="100"/>
-      <c r="T68" s="100"/>
-      <c r="U68" s="100"/>
-      <c r="V68" s="100"/>
-      <c r="W68" s="100"/>
-      <c r="X68" s="100"/>
-      <c r="Y68" s="100"/>
-      <c r="Z68" s="100"/>
-      <c r="AA68" s="100"/>
-      <c r="AB68" s="100"/>
-      <c r="AC68" s="100"/>
-      <c r="AD68" s="100"/>
-      <c r="AE68" s="100"/>
-      <c r="AF68" s="100"/>
-      <c r="AG68" s="100"/>
-      <c r="AH68" s="100"/>
-      <c r="AI68" s="100"/>
-      <c r="AJ68" s="100"/>
-      <c r="AK68" s="100"/>
-      <c r="AL68" s="100"/>
-      <c r="AM68" s="100"/>
-      <c r="AN68" s="100"/>
-    </row>
-    <row r="69" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="90"/>
-      <c r="C69" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="D69" s="67">
-        <v>123</v>
-      </c>
-      <c r="E69" s="53"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="54">
-        <v>123</v>
-      </c>
-      <c r="H69" s="100">
-        <v>5</v>
-      </c>
-      <c r="I69" s="99" t="s">
-        <v>217</v>
-      </c>
-      <c r="J69" s="100" t="s">
-        <v>218</v>
-      </c>
-      <c r="K69" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="L69" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="M69" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="N69" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="O69" s="100"/>
-      <c r="P69" s="100"/>
-      <c r="Q69" s="100"/>
-      <c r="R69" s="100"/>
-      <c r="S69" s="100"/>
-      <c r="T69" s="100"/>
-      <c r="U69" s="100"/>
-      <c r="V69" s="100"/>
-      <c r="W69" s="100"/>
-      <c r="X69" s="100"/>
-      <c r="Y69" s="100"/>
-      <c r="Z69" s="100"/>
-      <c r="AA69" s="100"/>
-      <c r="AB69" s="100"/>
-      <c r="AC69" s="100"/>
-      <c r="AD69" s="100"/>
-      <c r="AE69" s="100"/>
-      <c r="AF69" s="100"/>
-      <c r="AG69" s="100"/>
-      <c r="AH69" s="100"/>
-      <c r="AI69" s="100"/>
-      <c r="AJ69" s="100"/>
-      <c r="AK69" s="100"/>
-      <c r="AL69" s="100"/>
-      <c r="AM69" s="100"/>
-      <c r="AN69" s="100"/>
-    </row>
-    <row r="70" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="90"/>
-      <c r="C70" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="D70" s="67">
-        <v>121</v>
-      </c>
-      <c r="E70" s="53"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="54">
-        <v>121</v>
-      </c>
-      <c r="H70" s="100">
-        <v>5</v>
-      </c>
-      <c r="I70" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="J70" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="K70" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="L70" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="M70" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="N70" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="O70" s="100"/>
-      <c r="P70" s="100"/>
-      <c r="Q70" s="100"/>
-      <c r="R70" s="100"/>
-      <c r="S70" s="100"/>
-      <c r="T70" s="100"/>
-      <c r="U70" s="100"/>
-      <c r="V70" s="100"/>
-      <c r="W70" s="100"/>
-      <c r="X70" s="100"/>
-      <c r="Y70" s="100"/>
-      <c r="Z70" s="100"/>
-      <c r="AA70" s="100"/>
-      <c r="AB70" s="100"/>
-      <c r="AC70" s="100"/>
-      <c r="AD70" s="100"/>
-      <c r="AE70" s="100"/>
-      <c r="AF70" s="100"/>
-      <c r="AG70" s="100"/>
-      <c r="AH70" s="100"/>
-      <c r="AI70" s="100"/>
-      <c r="AJ70" s="100"/>
-      <c r="AK70" s="100"/>
-      <c r="AL70" s="100"/>
-      <c r="AM70" s="100"/>
-      <c r="AN70" s="100"/>
-    </row>
-    <row r="71" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="90"/>
-      <c r="C71" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="D71" s="67">
-        <v>120</v>
-      </c>
+      <c r="R70" s="91"/>
+      <c r="S70" s="91"/>
+      <c r="T70" s="91"/>
+      <c r="U70" s="91"/>
+      <c r="V70" s="91"/>
+      <c r="W70" s="91"/>
+      <c r="X70" s="91"/>
+      <c r="Y70" s="91"/>
+      <c r="Z70" s="91"/>
+      <c r="AA70" s="91"/>
+      <c r="AB70" s="91"/>
+      <c r="AC70" s="91"/>
+      <c r="AD70" s="91"/>
+      <c r="AE70" s="91"/>
+      <c r="AF70" s="91"/>
+      <c r="AG70" s="91"/>
+      <c r="AH70" s="91"/>
+      <c r="AI70" s="91"/>
+      <c r="AJ70" s="91"/>
+      <c r="AK70" s="91"/>
+      <c r="AL70" s="91"/>
+      <c r="AM70" s="91"/>
+      <c r="AN70" s="91"/>
+    </row>
+    <row r="71" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="11"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="67"/>
       <c r="E71" s="53"/>
       <c r="F71" s="48"/>
-      <c r="G71" s="54">
-        <v>120</v>
-      </c>
-      <c r="H71" s="100">
-        <v>5</v>
-      </c>
-      <c r="I71" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="J71" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="K71" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="L71" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="M71" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="N71" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="O71" s="100"/>
-      <c r="P71" s="100"/>
-      <c r="Q71" s="100"/>
-      <c r="R71" s="100"/>
-      <c r="S71" s="100"/>
-      <c r="T71" s="100"/>
-      <c r="U71" s="100"/>
-      <c r="V71" s="100"/>
-      <c r="W71" s="100"/>
-      <c r="X71" s="100"/>
-      <c r="Y71" s="100"/>
-      <c r="Z71" s="100"/>
-      <c r="AA71" s="100"/>
-      <c r="AB71" s="100"/>
-      <c r="AC71" s="100"/>
-      <c r="AD71" s="100"/>
-      <c r="AE71" s="100"/>
-      <c r="AF71" s="100"/>
-      <c r="AG71" s="100"/>
-      <c r="AH71" s="100"/>
-      <c r="AI71" s="100"/>
-      <c r="AJ71" s="100"/>
-      <c r="AK71" s="100"/>
-      <c r="AL71" s="100"/>
-      <c r="AM71" s="100"/>
-      <c r="AN71" s="100"/>
-    </row>
-    <row r="72" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="11"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="70"/>
-      <c r="K72" s="70"/>
-      <c r="L72" s="70"/>
-      <c r="M72" s="70"/>
-      <c r="N72" s="70"/>
-      <c r="O72" s="70"/>
-      <c r="P72" s="70"/>
-      <c r="Q72" s="70"/>
-      <c r="R72" s="91"/>
-      <c r="S72" s="91"/>
-      <c r="T72" s="91"/>
-      <c r="U72" s="91"/>
-      <c r="V72" s="91"/>
-      <c r="W72" s="91"/>
-      <c r="X72" s="91"/>
-      <c r="Y72" s="91"/>
-      <c r="Z72" s="91"/>
-      <c r="AA72" s="91"/>
-      <c r="AB72" s="91"/>
-      <c r="AC72" s="91"/>
-      <c r="AD72" s="91"/>
-      <c r="AE72" s="91"/>
-      <c r="AF72" s="91"/>
-      <c r="AG72" s="91"/>
-      <c r="AH72" s="91"/>
-      <c r="AI72" s="91"/>
-      <c r="AJ72" s="91"/>
-      <c r="AK72" s="91"/>
-      <c r="AL72" s="91"/>
-      <c r="AM72" s="91"/>
-      <c r="AN72" s="91"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="91"/>
+      <c r="S71" s="91"/>
+      <c r="T71" s="91"/>
+      <c r="U71" s="91"/>
+      <c r="V71" s="91"/>
+      <c r="W71" s="91"/>
+      <c r="X71" s="91"/>
+      <c r="Y71" s="91"/>
+      <c r="Z71" s="91"/>
+      <c r="AA71" s="91"/>
+      <c r="AB71" s="91"/>
+      <c r="AC71" s="91"/>
+      <c r="AD71" s="91"/>
+      <c r="AE71" s="91"/>
+      <c r="AF71" s="91"/>
+      <c r="AG71" s="91"/>
+      <c r="AH71" s="91"/>
+      <c r="AI71" s="91"/>
+      <c r="AJ71" s="91"/>
+      <c r="AK71" s="91"/>
+      <c r="AL71" s="91"/>
+      <c r="AM71" s="91"/>
+      <c r="AN71" s="91"/>
+    </row>
+    <row r="72" spans="2:40" s="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="83"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="89"/>
+      <c r="J72" s="88"/>
+      <c r="K72" s="88"/>
+      <c r="L72" s="88"/>
+      <c r="M72" s="88"/>
+      <c r="N72" s="88"/>
+      <c r="O72" s="88"/>
+      <c r="P72" s="88"/>
+      <c r="Q72" s="88"/>
+      <c r="R72" s="88"/>
+      <c r="S72" s="88"/>
+      <c r="T72" s="88"/>
+      <c r="U72" s="88"/>
+      <c r="V72" s="88"/>
+      <c r="W72" s="88"/>
+      <c r="X72" s="88"/>
+      <c r="Y72" s="88"/>
+      <c r="Z72" s="88"/>
+      <c r="AA72" s="88"/>
+      <c r="AB72" s="88"/>
+      <c r="AC72" s="88"/>
+      <c r="AD72" s="88"/>
+      <c r="AE72" s="88"/>
+      <c r="AF72" s="88"/>
+      <c r="AG72" s="88"/>
+      <c r="AH72" s="88"/>
+      <c r="AI72" s="88"/>
+      <c r="AJ72" s="88"/>
+      <c r="AK72" s="88"/>
+      <c r="AL72" s="88"/>
+      <c r="AM72" s="88"/>
+      <c r="AN72" s="88"/>
     </row>
     <row r="73" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D73" s="67" t="s">
-        <v>12</v>
-      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="67"/>
       <c r="E73" s="53"/>
       <c r="F73" s="48"/>
-      <c r="G73" s="54">
-        <v>201</v>
-      </c>
-      <c r="H73" s="70">
-        <v>5</v>
-      </c>
-      <c r="I73" s="71">
-        <v>201</v>
-      </c>
-      <c r="J73" s="70">
-        <v>201</v>
-      </c>
-      <c r="K73" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="L73" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="M73" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="N73" s="70" t="s">
-        <v>20</v>
-      </c>
+      <c r="G73" s="54"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="70"/>
+      <c r="K73" s="70"/>
+      <c r="L73" s="70"/>
+      <c r="M73" s="70"/>
+      <c r="N73" s="70"/>
       <c r="O73" s="70"/>
       <c r="P73" s="70"/>
       <c r="Q73" s="70"/>
@@ -4536,119 +4424,141 @@
       <c r="AN73" s="91"/>
     </row>
     <row r="74" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="11"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="67"/>
+      <c r="B74" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74" s="67" t="s">
+        <v>12</v>
+      </c>
       <c r="E74" s="53"/>
       <c r="F74" s="48"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="100"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="100"/>
-      <c r="K74" s="100"/>
-      <c r="L74" s="100"/>
-      <c r="M74" s="100"/>
-      <c r="N74" s="100"/>
-      <c r="O74" s="100"/>
-      <c r="P74" s="100"/>
-      <c r="Q74" s="100"/>
-      <c r="R74" s="100"/>
-      <c r="S74" s="100"/>
-      <c r="T74" s="100"/>
-      <c r="U74" s="100"/>
-      <c r="V74" s="100"/>
-      <c r="W74" s="100"/>
-      <c r="X74" s="100"/>
-      <c r="Y74" s="100"/>
-      <c r="Z74" s="100"/>
-      <c r="AA74" s="100"/>
-      <c r="AB74" s="100"/>
-      <c r="AC74" s="100"/>
-      <c r="AD74" s="100"/>
-      <c r="AE74" s="100"/>
-      <c r="AF74" s="100"/>
-      <c r="AG74" s="100"/>
-      <c r="AH74" s="100"/>
-      <c r="AI74" s="100"/>
-      <c r="AJ74" s="100"/>
-      <c r="AK74" s="100"/>
-      <c r="AL74" s="100"/>
-      <c r="AM74" s="100"/>
-      <c r="AN74" s="100"/>
+      <c r="G74" s="54">
+        <v>200</v>
+      </c>
+      <c r="H74" s="70">
+        <v>3</v>
+      </c>
+      <c r="I74" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="J74" s="70">
+        <v>0</v>
+      </c>
+      <c r="K74" s="70">
+        <v>0</v>
+      </c>
+      <c r="L74" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="70"/>
+      <c r="N74" s="70"/>
+      <c r="O74" s="70"/>
+      <c r="P74" s="70"/>
+      <c r="Q74" s="70"/>
+      <c r="R74" s="91"/>
+      <c r="S74" s="91"/>
+      <c r="T74" s="91"/>
+      <c r="U74" s="91"/>
+      <c r="V74" s="91"/>
+      <c r="W74" s="91"/>
+      <c r="X74" s="91"/>
+      <c r="Y74" s="91"/>
+      <c r="Z74" s="91"/>
+      <c r="AA74" s="91"/>
+      <c r="AB74" s="91"/>
+      <c r="AC74" s="91"/>
+      <c r="AD74" s="91"/>
+      <c r="AE74" s="91"/>
+      <c r="AF74" s="91"/>
+      <c r="AG74" s="91"/>
+      <c r="AH74" s="91"/>
+      <c r="AI74" s="91"/>
+      <c r="AJ74" s="91"/>
+      <c r="AK74" s="91"/>
+      <c r="AL74" s="91"/>
+      <c r="AM74" s="91"/>
+      <c r="AN74" s="91"/>
     </row>
     <row r="75" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C75" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="D75" s="67" t="s">
-        <v>12</v>
-      </c>
+      <c r="B75" s="90"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="67"/>
       <c r="E75" s="53"/>
       <c r="F75" s="48"/>
-      <c r="G75" s="54">
-        <v>202</v>
-      </c>
-      <c r="H75" s="70">
-        <v>3</v>
-      </c>
-      <c r="I75" s="71">
-        <v>202</v>
-      </c>
-      <c r="J75" s="70">
-        <v>202</v>
-      </c>
-      <c r="K75" s="70">
-        <v>5</v>
-      </c>
-      <c r="L75" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="M75" s="70"/>
-      <c r="N75" s="70"/>
-      <c r="O75" s="70"/>
-      <c r="P75" s="70"/>
-      <c r="Q75" s="70"/>
-      <c r="R75" s="91"/>
-      <c r="S75" s="91"/>
-      <c r="T75" s="91"/>
-      <c r="U75" s="91"/>
-      <c r="V75" s="91"/>
-      <c r="W75" s="91"/>
-      <c r="X75" s="91"/>
-      <c r="Y75" s="91"/>
-      <c r="Z75" s="91"/>
-      <c r="AA75" s="91"/>
-      <c r="AB75" s="91"/>
-      <c r="AC75" s="91"/>
-      <c r="AD75" s="91"/>
-      <c r="AE75" s="91"/>
-      <c r="AF75" s="91"/>
-      <c r="AG75" s="91"/>
-      <c r="AH75" s="91"/>
-      <c r="AI75" s="91"/>
-      <c r="AJ75" s="91"/>
-      <c r="AK75" s="91"/>
-      <c r="AL75" s="91"/>
-      <c r="AM75" s="91"/>
-      <c r="AN75" s="91"/>
-    </row>
-    <row r="76" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="11"/>
-      <c r="C76" s="105"/>
-      <c r="D76" s="67"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="100"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="100"/>
+      <c r="K75" s="100"/>
+      <c r="L75" s="100"/>
+      <c r="M75" s="100"/>
+      <c r="N75" s="100"/>
+      <c r="O75" s="100"/>
+      <c r="P75" s="100"/>
+      <c r="Q75" s="100"/>
+      <c r="R75" s="100"/>
+      <c r="S75" s="100"/>
+      <c r="T75" s="100"/>
+      <c r="U75" s="100"/>
+      <c r="V75" s="100"/>
+      <c r="W75" s="100"/>
+      <c r="X75" s="100"/>
+      <c r="Y75" s="100"/>
+      <c r="Z75" s="100"/>
+      <c r="AA75" s="100"/>
+      <c r="AB75" s="100"/>
+      <c r="AC75" s="100"/>
+      <c r="AD75" s="100"/>
+      <c r="AE75" s="100"/>
+      <c r="AF75" s="100"/>
+      <c r="AG75" s="100"/>
+      <c r="AH75" s="100"/>
+      <c r="AI75" s="100"/>
+      <c r="AJ75" s="100"/>
+      <c r="AK75" s="100"/>
+      <c r="AL75" s="100"/>
+      <c r="AM75" s="100"/>
+      <c r="AN75" s="100"/>
+    </row>
+    <row r="76" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="67">
+        <v>126</v>
+      </c>
       <c r="E76" s="53"/>
       <c r="F76" s="48"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="100"/>
-      <c r="I76" s="99"/>
-      <c r="J76" s="100"/>
-      <c r="K76" s="100"/>
-      <c r="L76" s="100"/>
-      <c r="M76" s="100"/>
-      <c r="N76" s="100"/>
+      <c r="G76" s="54">
+        <v>126</v>
+      </c>
+      <c r="H76" s="100">
+        <v>5</v>
+      </c>
+      <c r="I76" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="J76" s="100" t="s">
+        <v>212</v>
+      </c>
+      <c r="K76" s="100" t="s">
+        <v>213</v>
+      </c>
+      <c r="L76" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="M76" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="N76" s="100" t="s">
+        <v>20</v>
+      </c>
       <c r="O76" s="100"/>
       <c r="P76" s="100"/>
       <c r="Q76" s="100"/>
@@ -4676,113 +4586,103 @@
       <c r="AM76" s="100"/>
       <c r="AN76" s="100"/>
     </row>
-    <row r="77" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="11" t="s">
-        <v>222</v>
-      </c>
+    <row r="77" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="90"/>
       <c r="C77" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="D77" s="104">
-        <v>126</v>
+        <v>197</v>
+      </c>
+      <c r="D77" s="67">
+        <v>123</v>
       </c>
       <c r="E77" s="53"/>
       <c r="F77" s="48"/>
       <c r="G77" s="54">
-        <v>203</v>
-      </c>
-      <c r="H77" s="70">
-        <v>7</v>
-      </c>
-      <c r="I77" s="71" t="s">
-        <v>205</v>
-      </c>
-      <c r="J77" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="K77" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="L77" s="70">
-        <v>126</v>
-      </c>
-      <c r="M77" s="70" t="s">
-        <v>208</v>
-      </c>
-      <c r="N77" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="O77" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="P77" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="H77" s="100">
+        <v>5</v>
+      </c>
+      <c r="I77" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="J77" s="100" t="s">
+        <v>218</v>
+      </c>
+      <c r="K77" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="L77" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="M77" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="N77" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="Q77" s="70"/>
-      <c r="R77" s="91"/>
-      <c r="S77" s="91"/>
-      <c r="T77" s="91"/>
-      <c r="U77" s="91"/>
-      <c r="V77" s="91"/>
-      <c r="W77" s="91"/>
-      <c r="X77" s="91"/>
-      <c r="Y77" s="91"/>
-      <c r="Z77" s="91"/>
-      <c r="AA77" s="91"/>
-      <c r="AB77" s="91"/>
-      <c r="AC77" s="91"/>
-      <c r="AD77" s="91"/>
-      <c r="AE77" s="91"/>
-      <c r="AF77" s="91"/>
-      <c r="AG77" s="91"/>
-      <c r="AH77" s="91"/>
-      <c r="AI77" s="91"/>
-      <c r="AJ77" s="91"/>
-      <c r="AK77" s="91"/>
-      <c r="AL77" s="91"/>
-      <c r="AM77" s="91"/>
-      <c r="AN77" s="91"/>
-    </row>
-    <row r="78" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="11"/>
+      <c r="O77" s="100"/>
+      <c r="P77" s="100"/>
+      <c r="Q77" s="100"/>
+      <c r="R77" s="100"/>
+      <c r="S77" s="100"/>
+      <c r="T77" s="100"/>
+      <c r="U77" s="100"/>
+      <c r="V77" s="100"/>
+      <c r="W77" s="100"/>
+      <c r="X77" s="100"/>
+      <c r="Y77" s="100"/>
+      <c r="Z77" s="100"/>
+      <c r="AA77" s="100"/>
+      <c r="AB77" s="100"/>
+      <c r="AC77" s="100"/>
+      <c r="AD77" s="100"/>
+      <c r="AE77" s="100"/>
+      <c r="AF77" s="100"/>
+      <c r="AG77" s="100"/>
+      <c r="AH77" s="100"/>
+      <c r="AI77" s="100"/>
+      <c r="AJ77" s="100"/>
+      <c r="AK77" s="100"/>
+      <c r="AL77" s="100"/>
+      <c r="AM77" s="100"/>
+      <c r="AN77" s="100"/>
+    </row>
+    <row r="78" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="90"/>
       <c r="C78" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="D78" s="104">
-        <v>123</v>
+        <v>199</v>
+      </c>
+      <c r="D78" s="67">
+        <v>121</v>
       </c>
       <c r="E78" s="53"/>
       <c r="F78" s="48"/>
       <c r="G78" s="54">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="H78" s="100">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I78" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="J78" s="100" t="s">
-        <v>206</v>
-      </c>
-      <c r="K78" s="100" t="s">
-        <v>207</v>
-      </c>
-      <c r="L78" s="100">
-        <v>123</v>
-      </c>
-      <c r="M78" s="100" t="s">
-        <v>208</v>
+        <v>67</v>
+      </c>
+      <c r="J78" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="K78" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="L78" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="M78" s="99" t="s">
+        <v>67</v>
       </c>
       <c r="N78" s="100" t="s">
-        <v>209</v>
-      </c>
-      <c r="O78" s="100" t="s">
-        <v>210</v>
-      </c>
-      <c r="P78" s="100" t="s">
         <v>20</v>
       </c>
+      <c r="O78" s="100"/>
+      <c r="P78" s="100"/>
       <c r="Q78" s="100"/>
       <c r="R78" s="100"/>
       <c r="S78" s="100"/>
@@ -4808,46 +4708,42 @@
       <c r="AM78" s="100"/>
       <c r="AN78" s="100"/>
     </row>
-    <row r="79" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="11"/>
+    <row r="79" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="90"/>
       <c r="C79" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" s="104">
-        <v>121</v>
+        <v>200</v>
+      </c>
+      <c r="D79" s="67">
+        <v>120</v>
       </c>
       <c r="E79" s="53"/>
       <c r="F79" s="48"/>
       <c r="G79" s="54">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="H79" s="100">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I79" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="J79" s="100" t="s">
-        <v>206</v>
-      </c>
-      <c r="K79" s="100" t="s">
-        <v>207</v>
-      </c>
-      <c r="L79" s="100">
-        <v>121</v>
-      </c>
-      <c r="M79" s="100" t="s">
-        <v>208</v>
+        <v>67</v>
+      </c>
+      <c r="J79" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="K79" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="L79" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="M79" s="99" t="s">
+        <v>67</v>
       </c>
       <c r="N79" s="100" t="s">
-        <v>209</v>
-      </c>
-      <c r="O79" s="100" t="s">
-        <v>210</v>
-      </c>
-      <c r="P79" s="100" t="s">
         <v>20</v>
       </c>
+      <c r="O79" s="100"/>
+      <c r="P79" s="100"/>
       <c r="Q79" s="100"/>
       <c r="R79" s="100"/>
       <c r="S79" s="100"/>
@@ -4875,225 +4771,667 @@
     </row>
     <row r="80" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="11"/>
-      <c r="C80" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="D80" s="104">
-        <v>120</v>
-      </c>
+      <c r="C80" s="58"/>
+      <c r="D80" s="67"/>
       <c r="E80" s="53"/>
       <c r="F80" s="48"/>
-      <c r="G80" s="54">
-        <v>203</v>
-      </c>
-      <c r="H80" s="100">
-        <v>7</v>
-      </c>
-      <c r="I80" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="J80" s="100" t="s">
-        <v>206</v>
-      </c>
-      <c r="K80" s="100" t="s">
-        <v>207</v>
-      </c>
-      <c r="L80" s="100">
-        <v>120</v>
-      </c>
-      <c r="M80" s="100" t="s">
-        <v>208</v>
-      </c>
-      <c r="N80" s="100" t="s">
-        <v>209</v>
-      </c>
-      <c r="O80" s="100" t="s">
-        <v>210</v>
-      </c>
-      <c r="P80" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q80" s="100"/>
-      <c r="R80" s="100"/>
-      <c r="S80" s="100"/>
-      <c r="T80" s="100"/>
-      <c r="U80" s="100"/>
-      <c r="V80" s="100"/>
-      <c r="W80" s="100"/>
-      <c r="X80" s="100"/>
-      <c r="Y80" s="100"/>
-      <c r="Z80" s="100"/>
-      <c r="AA80" s="100"/>
-      <c r="AB80" s="100"/>
-      <c r="AC80" s="100"/>
-      <c r="AD80" s="100"/>
-      <c r="AE80" s="100"/>
-      <c r="AF80" s="100"/>
-      <c r="AG80" s="100"/>
-      <c r="AH80" s="100"/>
-      <c r="AI80" s="100"/>
-      <c r="AJ80" s="100"/>
-      <c r="AK80" s="100"/>
-      <c r="AL80" s="100"/>
-      <c r="AM80" s="100"/>
-      <c r="AN80" s="100"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="70"/>
+      <c r="I80" s="71"/>
+      <c r="J80" s="70"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="70"/>
+      <c r="M80" s="70"/>
+      <c r="N80" s="70"/>
+      <c r="O80" s="70"/>
+      <c r="P80" s="70"/>
+      <c r="Q80" s="70"/>
+      <c r="R80" s="91"/>
+      <c r="S80" s="91"/>
+      <c r="T80" s="91"/>
+      <c r="U80" s="91"/>
+      <c r="V80" s="91"/>
+      <c r="W80" s="91"/>
+      <c r="X80" s="91"/>
+      <c r="Y80" s="91"/>
+      <c r="Z80" s="91"/>
+      <c r="AA80" s="91"/>
+      <c r="AB80" s="91"/>
+      <c r="AC80" s="91"/>
+      <c r="AD80" s="91"/>
+      <c r="AE80" s="91"/>
+      <c r="AF80" s="91"/>
+      <c r="AG80" s="91"/>
+      <c r="AH80" s="91"/>
+      <c r="AI80" s="91"/>
+      <c r="AJ80" s="91"/>
+      <c r="AK80" s="91"/>
+      <c r="AL80" s="91"/>
+      <c r="AM80" s="91"/>
+      <c r="AN80" s="91"/>
     </row>
     <row r="81" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="11"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="104"/>
+      <c r="B81" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="67" t="s">
+        <v>12</v>
+      </c>
       <c r="E81" s="53"/>
       <c r="F81" s="48"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="100"/>
-      <c r="I81" s="99"/>
-      <c r="J81" s="100"/>
-      <c r="K81" s="100"/>
-      <c r="L81" s="100"/>
-      <c r="M81" s="100"/>
-      <c r="N81" s="100"/>
-      <c r="O81" s="100"/>
-      <c r="P81" s="100"/>
-      <c r="Q81" s="100"/>
-      <c r="R81" s="100"/>
-      <c r="S81" s="100"/>
-      <c r="T81" s="100"/>
-      <c r="U81" s="100"/>
-      <c r="V81" s="100"/>
-      <c r="W81" s="100"/>
-      <c r="X81" s="100"/>
-      <c r="Y81" s="100"/>
-      <c r="Z81" s="100"/>
-      <c r="AA81" s="100"/>
-      <c r="AB81" s="100"/>
-      <c r="AC81" s="100"/>
-      <c r="AD81" s="100"/>
-      <c r="AE81" s="100"/>
-      <c r="AF81" s="100"/>
-      <c r="AG81" s="100"/>
-      <c r="AH81" s="100"/>
-      <c r="AI81" s="100"/>
-      <c r="AJ81" s="100"/>
-      <c r="AK81" s="100"/>
-      <c r="AL81" s="100"/>
-      <c r="AM81" s="100"/>
-      <c r="AN81" s="100"/>
-    </row>
-    <row r="82" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="78" t="s">
+      <c r="G81" s="54">
+        <v>201</v>
+      </c>
+      <c r="H81" s="70">
+        <v>5</v>
+      </c>
+      <c r="I81" s="71">
+        <v>201</v>
+      </c>
+      <c r="J81" s="70">
+        <v>201</v>
+      </c>
+      <c r="K81" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="L81" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="M81" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="N81" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="O81" s="70"/>
+      <c r="P81" s="70"/>
+      <c r="Q81" s="70"/>
+      <c r="R81" s="91"/>
+      <c r="S81" s="91"/>
+      <c r="T81" s="91"/>
+      <c r="U81" s="91"/>
+      <c r="V81" s="91"/>
+      <c r="W81" s="91"/>
+      <c r="X81" s="91"/>
+      <c r="Y81" s="91"/>
+      <c r="Z81" s="91"/>
+      <c r="AA81" s="91"/>
+      <c r="AB81" s="91"/>
+      <c r="AC81" s="91"/>
+      <c r="AD81" s="91"/>
+      <c r="AE81" s="91"/>
+      <c r="AF81" s="91"/>
+      <c r="AG81" s="91"/>
+      <c r="AH81" s="91"/>
+      <c r="AI81" s="91"/>
+      <c r="AJ81" s="91"/>
+      <c r="AK81" s="91"/>
+      <c r="AL81" s="91"/>
+      <c r="AM81" s="91"/>
+      <c r="AN81" s="91"/>
+    </row>
+    <row r="82" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="11"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="100"/>
+      <c r="I82" s="99"/>
+      <c r="J82" s="100"/>
+      <c r="K82" s="100"/>
+      <c r="L82" s="100"/>
+      <c r="M82" s="100"/>
+      <c r="N82" s="100"/>
+      <c r="O82" s="100"/>
+      <c r="P82" s="100"/>
+      <c r="Q82" s="100"/>
+      <c r="R82" s="100"/>
+      <c r="S82" s="100"/>
+      <c r="T82" s="100"/>
+      <c r="U82" s="100"/>
+      <c r="V82" s="100"/>
+      <c r="W82" s="100"/>
+      <c r="X82" s="100"/>
+      <c r="Y82" s="100"/>
+      <c r="Z82" s="100"/>
+      <c r="AA82" s="100"/>
+      <c r="AB82" s="100"/>
+      <c r="AC82" s="100"/>
+      <c r="AD82" s="100"/>
+      <c r="AE82" s="100"/>
+      <c r="AF82" s="100"/>
+      <c r="AG82" s="100"/>
+      <c r="AH82" s="100"/>
+      <c r="AI82" s="100"/>
+      <c r="AJ82" s="100"/>
+      <c r="AK82" s="100"/>
+      <c r="AL82" s="100"/>
+      <c r="AM82" s="100"/>
+      <c r="AN82" s="100"/>
+    </row>
+    <row r="83" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="D83" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="53"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="54">
+        <v>202</v>
+      </c>
+      <c r="H83" s="70">
+        <v>3</v>
+      </c>
+      <c r="I83" s="71">
+        <v>202</v>
+      </c>
+      <c r="J83" s="70">
+        <v>202</v>
+      </c>
+      <c r="K83" s="70">
+        <v>5</v>
+      </c>
+      <c r="L83" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" s="70"/>
+      <c r="N83" s="70"/>
+      <c r="O83" s="70"/>
+      <c r="P83" s="70"/>
+      <c r="Q83" s="70"/>
+      <c r="R83" s="91"/>
+      <c r="S83" s="91"/>
+      <c r="T83" s="91"/>
+      <c r="U83" s="91"/>
+      <c r="V83" s="91"/>
+      <c r="W83" s="91"/>
+      <c r="X83" s="91"/>
+      <c r="Y83" s="91"/>
+      <c r="Z83" s="91"/>
+      <c r="AA83" s="91"/>
+      <c r="AB83" s="91"/>
+      <c r="AC83" s="91"/>
+      <c r="AD83" s="91"/>
+      <c r="AE83" s="91"/>
+      <c r="AF83" s="91"/>
+      <c r="AG83" s="91"/>
+      <c r="AH83" s="91"/>
+      <c r="AI83" s="91"/>
+      <c r="AJ83" s="91"/>
+      <c r="AK83" s="91"/>
+      <c r="AL83" s="91"/>
+      <c r="AM83" s="91"/>
+      <c r="AN83" s="91"/>
+    </row>
+    <row r="84" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="11"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="100"/>
+      <c r="I84" s="99"/>
+      <c r="J84" s="100"/>
+      <c r="K84" s="100"/>
+      <c r="L84" s="100"/>
+      <c r="M84" s="100"/>
+      <c r="N84" s="100"/>
+      <c r="O84" s="100"/>
+      <c r="P84" s="100"/>
+      <c r="Q84" s="100"/>
+      <c r="R84" s="100"/>
+      <c r="S84" s="100"/>
+      <c r="T84" s="100"/>
+      <c r="U84" s="100"/>
+      <c r="V84" s="100"/>
+      <c r="W84" s="100"/>
+      <c r="X84" s="100"/>
+      <c r="Y84" s="100"/>
+      <c r="Z84" s="100"/>
+      <c r="AA84" s="100"/>
+      <c r="AB84" s="100"/>
+      <c r="AC84" s="100"/>
+      <c r="AD84" s="100"/>
+      <c r="AE84" s="100"/>
+      <c r="AF84" s="100"/>
+      <c r="AG84" s="100"/>
+      <c r="AH84" s="100"/>
+      <c r="AI84" s="100"/>
+      <c r="AJ84" s="100"/>
+      <c r="AK84" s="100"/>
+      <c r="AL84" s="100"/>
+      <c r="AM84" s="100"/>
+      <c r="AN84" s="100"/>
+    </row>
+    <row r="85" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="104">
+        <v>126</v>
+      </c>
+      <c r="E85" s="53"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="54">
+        <v>203</v>
+      </c>
+      <c r="H85" s="70">
+        <v>7</v>
+      </c>
+      <c r="I85" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="J85" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="K85" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="L85" s="70">
+        <v>126</v>
+      </c>
+      <c r="M85" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="N85" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="O85" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="P85" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q85" s="70"/>
+      <c r="R85" s="91"/>
+      <c r="S85" s="91"/>
+      <c r="T85" s="91"/>
+      <c r="U85" s="91"/>
+      <c r="V85" s="91"/>
+      <c r="W85" s="91"/>
+      <c r="X85" s="91"/>
+      <c r="Y85" s="91"/>
+      <c r="Z85" s="91"/>
+      <c r="AA85" s="91"/>
+      <c r="AB85" s="91"/>
+      <c r="AC85" s="91"/>
+      <c r="AD85" s="91"/>
+      <c r="AE85" s="91"/>
+      <c r="AF85" s="91"/>
+      <c r="AG85" s="91"/>
+      <c r="AH85" s="91"/>
+      <c r="AI85" s="91"/>
+      <c r="AJ85" s="91"/>
+      <c r="AK85" s="91"/>
+      <c r="AL85" s="91"/>
+      <c r="AM85" s="91"/>
+      <c r="AN85" s="91"/>
+    </row>
+    <row r="86" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="11"/>
+      <c r="C86" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" s="104">
+        <v>123</v>
+      </c>
+      <c r="E86" s="53"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="54">
+        <v>203</v>
+      </c>
+      <c r="H86" s="100">
+        <v>7</v>
+      </c>
+      <c r="I86" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="J86" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="K86" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="L86" s="100">
+        <v>123</v>
+      </c>
+      <c r="M86" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="N86" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="O86" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="P86" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q86" s="100"/>
+      <c r="R86" s="100"/>
+      <c r="S86" s="100"/>
+      <c r="T86" s="100"/>
+      <c r="U86" s="100"/>
+      <c r="V86" s="100"/>
+      <c r="W86" s="100"/>
+      <c r="X86" s="100"/>
+      <c r="Y86" s="100"/>
+      <c r="Z86" s="100"/>
+      <c r="AA86" s="100"/>
+      <c r="AB86" s="100"/>
+      <c r="AC86" s="100"/>
+      <c r="AD86" s="100"/>
+      <c r="AE86" s="100"/>
+      <c r="AF86" s="100"/>
+      <c r="AG86" s="100"/>
+      <c r="AH86" s="100"/>
+      <c r="AI86" s="100"/>
+      <c r="AJ86" s="100"/>
+      <c r="AK86" s="100"/>
+      <c r="AL86" s="100"/>
+      <c r="AM86" s="100"/>
+      <c r="AN86" s="100"/>
+    </row>
+    <row r="87" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="11"/>
+      <c r="C87" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" s="104">
+        <v>121</v>
+      </c>
+      <c r="E87" s="53"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="54">
+        <v>203</v>
+      </c>
+      <c r="H87" s="100">
+        <v>7</v>
+      </c>
+      <c r="I87" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="J87" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="K87" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="L87" s="100">
+        <v>121</v>
+      </c>
+      <c r="M87" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="N87" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="O87" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="P87" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q87" s="100"/>
+      <c r="R87" s="100"/>
+      <c r="S87" s="100"/>
+      <c r="T87" s="100"/>
+      <c r="U87" s="100"/>
+      <c r="V87" s="100"/>
+      <c r="W87" s="100"/>
+      <c r="X87" s="100"/>
+      <c r="Y87" s="100"/>
+      <c r="Z87" s="100"/>
+      <c r="AA87" s="100"/>
+      <c r="AB87" s="100"/>
+      <c r="AC87" s="100"/>
+      <c r="AD87" s="100"/>
+      <c r="AE87" s="100"/>
+      <c r="AF87" s="100"/>
+      <c r="AG87" s="100"/>
+      <c r="AH87" s="100"/>
+      <c r="AI87" s="100"/>
+      <c r="AJ87" s="100"/>
+      <c r="AK87" s="100"/>
+      <c r="AL87" s="100"/>
+      <c r="AM87" s="100"/>
+      <c r="AN87" s="100"/>
+    </row>
+    <row r="88" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="11"/>
+      <c r="C88" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="D88" s="104">
+        <v>120</v>
+      </c>
+      <c r="E88" s="53"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="54">
+        <v>203</v>
+      </c>
+      <c r="H88" s="100">
+        <v>7</v>
+      </c>
+      <c r="I88" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="J88" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="K88" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="L88" s="100">
+        <v>120</v>
+      </c>
+      <c r="M88" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="N88" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="O88" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="P88" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q88" s="100"/>
+      <c r="R88" s="100"/>
+      <c r="S88" s="100"/>
+      <c r="T88" s="100"/>
+      <c r="U88" s="100"/>
+      <c r="V88" s="100"/>
+      <c r="W88" s="100"/>
+      <c r="X88" s="100"/>
+      <c r="Y88" s="100"/>
+      <c r="Z88" s="100"/>
+      <c r="AA88" s="100"/>
+      <c r="AB88" s="100"/>
+      <c r="AC88" s="100"/>
+      <c r="AD88" s="100"/>
+      <c r="AE88" s="100"/>
+      <c r="AF88" s="100"/>
+      <c r="AG88" s="100"/>
+      <c r="AH88" s="100"/>
+      <c r="AI88" s="100"/>
+      <c r="AJ88" s="100"/>
+      <c r="AK88" s="100"/>
+      <c r="AL88" s="100"/>
+      <c r="AM88" s="100"/>
+      <c r="AN88" s="100"/>
+    </row>
+    <row r="89" spans="2:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="11"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="104"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="100"/>
+      <c r="I89" s="99"/>
+      <c r="J89" s="100"/>
+      <c r="K89" s="100"/>
+      <c r="L89" s="100"/>
+      <c r="M89" s="100"/>
+      <c r="N89" s="100"/>
+      <c r="O89" s="100"/>
+      <c r="P89" s="100"/>
+      <c r="Q89" s="100"/>
+      <c r="R89" s="100"/>
+      <c r="S89" s="100"/>
+      <c r="T89" s="100"/>
+      <c r="U89" s="100"/>
+      <c r="V89" s="100"/>
+      <c r="W89" s="100"/>
+      <c r="X89" s="100"/>
+      <c r="Y89" s="100"/>
+      <c r="Z89" s="100"/>
+      <c r="AA89" s="100"/>
+      <c r="AB89" s="100"/>
+      <c r="AC89" s="100"/>
+      <c r="AD89" s="100"/>
+      <c r="AE89" s="100"/>
+      <c r="AF89" s="100"/>
+      <c r="AG89" s="100"/>
+      <c r="AH89" s="100"/>
+      <c r="AI89" s="100"/>
+      <c r="AJ89" s="100"/>
+      <c r="AK89" s="100"/>
+      <c r="AL89" s="100"/>
+      <c r="AM89" s="100"/>
+      <c r="AN89" s="100"/>
+    </row>
+    <row r="90" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="D83" s="74" t="s">
+      <c r="D91" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="E83" s="75"/>
-      <c r="F83" s="76" t="s">
+      <c r="E91" s="75"/>
+      <c r="F91" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="G83" s="77"/>
-    </row>
-    <row r="84" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B84" s="73" t="s">
+      <c r="G91" s="77"/>
+    </row>
+    <row r="92" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B92" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="C84" s="72" t="s">
+      <c r="C92" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="D84" s="67">
+      <c r="D92" s="67">
         <v>254</v>
       </c>
-      <c r="E84" s="47" t="s">
+      <c r="E92" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="48">
+      <c r="F92" s="48">
         <v>253</v>
       </c>
-      <c r="G84" s="49" t="s">
+      <c r="G92" s="49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B85" s="73"/>
-      <c r="C85" s="72"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-    </row>
-    <row r="86" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B86" s="73" t="s">
+    <row r="93" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B93" s="73"/>
+      <c r="C93" s="72"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+    </row>
+    <row r="94" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B94" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="C86" s="72" t="s">
+      <c r="C94" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="D86" s="67">
+      <c r="D94" s="67">
         <v>239</v>
       </c>
-      <c r="E86" s="47" t="s">
+      <c r="E94" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="F86" s="48">
+      <c r="F94" s="48">
         <v>237</v>
       </c>
-      <c r="G86" s="49" t="s">
+      <c r="G94" s="49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B87" s="73"/>
-      <c r="C87" s="72"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="P87" s="21"/>
-      <c r="Q87" s="21"/>
-    </row>
-    <row r="88" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B88" s="73" t="s">
+    <row r="95" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B95" s="73"/>
+      <c r="C95" s="72"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="21"/>
+      <c r="Q95" s="21"/>
+    </row>
+    <row r="96" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B96" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C88" s="72" t="s">
+      <c r="C96" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="F88" s="48">
+      <c r="F96" s="48">
         <v>211</v>
       </c>
-      <c r="G88" s="49" t="s">
+      <c r="G96" s="49" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B89" s="73"/>
-      <c r="C89" s="72"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="21"/>
-    </row>
-    <row r="90" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B90" s="73" t="s">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B97" s="73"/>
+      <c r="C97" s="72"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="21"/>
+      <c r="Q97" s="21"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B98" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="72" t="s">
+      <c r="C98" s="72" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5115,9 +5453,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5285,26 +5626,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F18C333-41DD-4AE5-A5E3-DF6F4E4DF526}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8B9148-C797-4C6B-A280-0738F64421E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ac7999f6-dd20-429f-9c50-d27a0c8de317"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5328,9 +5658,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8B9148-C797-4C6B-A280-0738F64421E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F18C333-41DD-4AE5-A5E3-DF6F4E4DF526}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ac7999f6-dd20-429f-9c50-d27a0c8de317"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>